--- a/library/export_burs.xlsx
+++ b/library/export_burs.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\fas2020\library\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\xampp\htdocs\fas\library\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8025"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20496" windowHeight="8028"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -207,12 +207,12 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="4">
-    <numFmt numFmtId="41" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="164" formatCode="mm/dd/yy;@"/>
-    <numFmt numFmtId="165" formatCode="#,##0.00;[Red]#,##0.00"/>
+    <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="165" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="166" formatCode="mm/dd/yy;@"/>
+    <numFmt numFmtId="167" formatCode="#,##0.00;[Red]#,##0.00"/>
   </numFmts>
   <fonts count="10" x14ac:knownFonts="1">
     <font>
@@ -747,7 +747,7 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="202">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -812,13 +812,13 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="41" fontId="2" fillId="0" borderId="26" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="26" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="41" fontId="2" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="41" fontId="2" fillId="0" borderId="24" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="41" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="26" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="2" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="24" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="26" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -863,28 +863,343 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="166" fontId="7" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="43" fontId="7" fillId="0" borderId="34" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="43" fontId="7" fillId="0" borderId="25" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="7" fillId="0" borderId="34" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="7" fillId="0" borderId="25" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="43" fontId="7" fillId="0" borderId="26" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="7" fillId="0" borderId="26" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="7" fillId="0" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="166" fontId="7" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="43" fontId="7" fillId="0" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="41" fontId="7" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="7" fillId="0" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="43" fontId="7" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="7" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="41" fontId="7" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="2" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="3" fillId="0" borderId="25" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="3" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="3" fillId="0" borderId="22" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="3" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -903,19 +1218,13 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="2" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="2" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -924,16 +1233,16 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="2" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="2" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -945,320 +1254,11 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="25" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="22" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1644,908 +1644,908 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M63"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A16" zoomScale="60" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="O28" sqref="O28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.5703125" style="44" customWidth="1"/>
-    <col min="2" max="2" width="5.140625" style="44" customWidth="1"/>
+    <col min="1" max="1" width="8.5546875" style="44" customWidth="1"/>
+    <col min="2" max="2" width="5.109375" style="44" customWidth="1"/>
     <col min="3" max="3" width="6" style="44" customWidth="1"/>
-    <col min="4" max="4" width="11.85546875" style="44" customWidth="1"/>
-    <col min="5" max="5" width="6.5703125" style="44" customWidth="1"/>
+    <col min="4" max="4" width="11.88671875" style="44" customWidth="1"/>
+    <col min="5" max="5" width="6.5546875" style="44" customWidth="1"/>
     <col min="6" max="6" width="8" style="44" customWidth="1"/>
     <col min="7" max="7" width="4" style="44" customWidth="1"/>
-    <col min="8" max="8" width="13.28515625" style="44" customWidth="1"/>
-    <col min="9" max="9" width="10.140625" style="44" customWidth="1"/>
-    <col min="10" max="10" width="2.28515625" style="44" customWidth="1"/>
-    <col min="11" max="11" width="13.42578125" style="44" customWidth="1"/>
+    <col min="8" max="8" width="13.33203125" style="44" customWidth="1"/>
+    <col min="9" max="9" width="10.109375" style="44" customWidth="1"/>
+    <col min="10" max="10" width="2.33203125" style="44" customWidth="1"/>
+    <col min="11" max="11" width="13.44140625" style="44" customWidth="1"/>
     <col min="12" max="12" width="12" style="44" customWidth="1"/>
-    <col min="13" max="13" width="12.5703125" style="44" customWidth="1"/>
-    <col min="14" max="256" width="9.140625" style="44"/>
-    <col min="257" max="257" width="8.5703125" style="44" customWidth="1"/>
-    <col min="258" max="258" width="5.140625" style="44" customWidth="1"/>
+    <col min="13" max="13" width="12.5546875" style="44" customWidth="1"/>
+    <col min="14" max="256" width="9.109375" style="44"/>
+    <col min="257" max="257" width="8.5546875" style="44" customWidth="1"/>
+    <col min="258" max="258" width="5.109375" style="44" customWidth="1"/>
     <col min="259" max="259" width="6" style="44" customWidth="1"/>
-    <col min="260" max="260" width="11.85546875" style="44" customWidth="1"/>
-    <col min="261" max="261" width="6.5703125" style="44" customWidth="1"/>
+    <col min="260" max="260" width="11.88671875" style="44" customWidth="1"/>
+    <col min="261" max="261" width="6.5546875" style="44" customWidth="1"/>
     <col min="262" max="262" width="8" style="44" customWidth="1"/>
     <col min="263" max="263" width="4" style="44" customWidth="1"/>
-    <col min="264" max="264" width="13.28515625" style="44" customWidth="1"/>
-    <col min="265" max="265" width="10.140625" style="44" customWidth="1"/>
-    <col min="266" max="266" width="2.28515625" style="44" customWidth="1"/>
-    <col min="267" max="267" width="13.42578125" style="44" customWidth="1"/>
+    <col min="264" max="264" width="13.33203125" style="44" customWidth="1"/>
+    <col min="265" max="265" width="10.109375" style="44" customWidth="1"/>
+    <col min="266" max="266" width="2.33203125" style="44" customWidth="1"/>
+    <col min="267" max="267" width="13.44140625" style="44" customWidth="1"/>
     <col min="268" max="268" width="12" style="44" customWidth="1"/>
-    <col min="269" max="269" width="12.5703125" style="44" customWidth="1"/>
-    <col min="270" max="512" width="9.140625" style="44"/>
-    <col min="513" max="513" width="8.5703125" style="44" customWidth="1"/>
-    <col min="514" max="514" width="5.140625" style="44" customWidth="1"/>
+    <col min="269" max="269" width="12.5546875" style="44" customWidth="1"/>
+    <col min="270" max="512" width="9.109375" style="44"/>
+    <col min="513" max="513" width="8.5546875" style="44" customWidth="1"/>
+    <col min="514" max="514" width="5.109375" style="44" customWidth="1"/>
     <col min="515" max="515" width="6" style="44" customWidth="1"/>
-    <col min="516" max="516" width="11.85546875" style="44" customWidth="1"/>
-    <col min="517" max="517" width="6.5703125" style="44" customWidth="1"/>
+    <col min="516" max="516" width="11.88671875" style="44" customWidth="1"/>
+    <col min="517" max="517" width="6.5546875" style="44" customWidth="1"/>
     <col min="518" max="518" width="8" style="44" customWidth="1"/>
     <col min="519" max="519" width="4" style="44" customWidth="1"/>
-    <col min="520" max="520" width="13.28515625" style="44" customWidth="1"/>
-    <col min="521" max="521" width="10.140625" style="44" customWidth="1"/>
-    <col min="522" max="522" width="2.28515625" style="44" customWidth="1"/>
-    <col min="523" max="523" width="13.42578125" style="44" customWidth="1"/>
+    <col min="520" max="520" width="13.33203125" style="44" customWidth="1"/>
+    <col min="521" max="521" width="10.109375" style="44" customWidth="1"/>
+    <col min="522" max="522" width="2.33203125" style="44" customWidth="1"/>
+    <col min="523" max="523" width="13.44140625" style="44" customWidth="1"/>
     <col min="524" max="524" width="12" style="44" customWidth="1"/>
-    <col min="525" max="525" width="12.5703125" style="44" customWidth="1"/>
-    <col min="526" max="768" width="9.140625" style="44"/>
-    <col min="769" max="769" width="8.5703125" style="44" customWidth="1"/>
-    <col min="770" max="770" width="5.140625" style="44" customWidth="1"/>
+    <col min="525" max="525" width="12.5546875" style="44" customWidth="1"/>
+    <col min="526" max="768" width="9.109375" style="44"/>
+    <col min="769" max="769" width="8.5546875" style="44" customWidth="1"/>
+    <col min="770" max="770" width="5.109375" style="44" customWidth="1"/>
     <col min="771" max="771" width="6" style="44" customWidth="1"/>
-    <col min="772" max="772" width="11.85546875" style="44" customWidth="1"/>
-    <col min="773" max="773" width="6.5703125" style="44" customWidth="1"/>
+    <col min="772" max="772" width="11.88671875" style="44" customWidth="1"/>
+    <col min="773" max="773" width="6.5546875" style="44" customWidth="1"/>
     <col min="774" max="774" width="8" style="44" customWidth="1"/>
     <col min="775" max="775" width="4" style="44" customWidth="1"/>
-    <col min="776" max="776" width="13.28515625" style="44" customWidth="1"/>
-    <col min="777" max="777" width="10.140625" style="44" customWidth="1"/>
-    <col min="778" max="778" width="2.28515625" style="44" customWidth="1"/>
-    <col min="779" max="779" width="13.42578125" style="44" customWidth="1"/>
+    <col min="776" max="776" width="13.33203125" style="44" customWidth="1"/>
+    <col min="777" max="777" width="10.109375" style="44" customWidth="1"/>
+    <col min="778" max="778" width="2.33203125" style="44" customWidth="1"/>
+    <col min="779" max="779" width="13.44140625" style="44" customWidth="1"/>
     <col min="780" max="780" width="12" style="44" customWidth="1"/>
-    <col min="781" max="781" width="12.5703125" style="44" customWidth="1"/>
-    <col min="782" max="1024" width="9.140625" style="44"/>
-    <col min="1025" max="1025" width="8.5703125" style="44" customWidth="1"/>
-    <col min="1026" max="1026" width="5.140625" style="44" customWidth="1"/>
+    <col min="781" max="781" width="12.5546875" style="44" customWidth="1"/>
+    <col min="782" max="1024" width="9.109375" style="44"/>
+    <col min="1025" max="1025" width="8.5546875" style="44" customWidth="1"/>
+    <col min="1026" max="1026" width="5.109375" style="44" customWidth="1"/>
     <col min="1027" max="1027" width="6" style="44" customWidth="1"/>
-    <col min="1028" max="1028" width="11.85546875" style="44" customWidth="1"/>
-    <col min="1029" max="1029" width="6.5703125" style="44" customWidth="1"/>
+    <col min="1028" max="1028" width="11.88671875" style="44" customWidth="1"/>
+    <col min="1029" max="1029" width="6.5546875" style="44" customWidth="1"/>
     <col min="1030" max="1030" width="8" style="44" customWidth="1"/>
     <col min="1031" max="1031" width="4" style="44" customWidth="1"/>
-    <col min="1032" max="1032" width="13.28515625" style="44" customWidth="1"/>
-    <col min="1033" max="1033" width="10.140625" style="44" customWidth="1"/>
-    <col min="1034" max="1034" width="2.28515625" style="44" customWidth="1"/>
-    <col min="1035" max="1035" width="13.42578125" style="44" customWidth="1"/>
+    <col min="1032" max="1032" width="13.33203125" style="44" customWidth="1"/>
+    <col min="1033" max="1033" width="10.109375" style="44" customWidth="1"/>
+    <col min="1034" max="1034" width="2.33203125" style="44" customWidth="1"/>
+    <col min="1035" max="1035" width="13.44140625" style="44" customWidth="1"/>
     <col min="1036" max="1036" width="12" style="44" customWidth="1"/>
-    <col min="1037" max="1037" width="12.5703125" style="44" customWidth="1"/>
-    <col min="1038" max="1280" width="9.140625" style="44"/>
-    <col min="1281" max="1281" width="8.5703125" style="44" customWidth="1"/>
-    <col min="1282" max="1282" width="5.140625" style="44" customWidth="1"/>
+    <col min="1037" max="1037" width="12.5546875" style="44" customWidth="1"/>
+    <col min="1038" max="1280" width="9.109375" style="44"/>
+    <col min="1281" max="1281" width="8.5546875" style="44" customWidth="1"/>
+    <col min="1282" max="1282" width="5.109375" style="44" customWidth="1"/>
     <col min="1283" max="1283" width="6" style="44" customWidth="1"/>
-    <col min="1284" max="1284" width="11.85546875" style="44" customWidth="1"/>
-    <col min="1285" max="1285" width="6.5703125" style="44" customWidth="1"/>
+    <col min="1284" max="1284" width="11.88671875" style="44" customWidth="1"/>
+    <col min="1285" max="1285" width="6.5546875" style="44" customWidth="1"/>
     <col min="1286" max="1286" width="8" style="44" customWidth="1"/>
     <col min="1287" max="1287" width="4" style="44" customWidth="1"/>
-    <col min="1288" max="1288" width="13.28515625" style="44" customWidth="1"/>
-    <col min="1289" max="1289" width="10.140625" style="44" customWidth="1"/>
-    <col min="1290" max="1290" width="2.28515625" style="44" customWidth="1"/>
-    <col min="1291" max="1291" width="13.42578125" style="44" customWidth="1"/>
+    <col min="1288" max="1288" width="13.33203125" style="44" customWidth="1"/>
+    <col min="1289" max="1289" width="10.109375" style="44" customWidth="1"/>
+    <col min="1290" max="1290" width="2.33203125" style="44" customWidth="1"/>
+    <col min="1291" max="1291" width="13.44140625" style="44" customWidth="1"/>
     <col min="1292" max="1292" width="12" style="44" customWidth="1"/>
-    <col min="1293" max="1293" width="12.5703125" style="44" customWidth="1"/>
-    <col min="1294" max="1536" width="9.140625" style="44"/>
-    <col min="1537" max="1537" width="8.5703125" style="44" customWidth="1"/>
-    <col min="1538" max="1538" width="5.140625" style="44" customWidth="1"/>
+    <col min="1293" max="1293" width="12.5546875" style="44" customWidth="1"/>
+    <col min="1294" max="1536" width="9.109375" style="44"/>
+    <col min="1537" max="1537" width="8.5546875" style="44" customWidth="1"/>
+    <col min="1538" max="1538" width="5.109375" style="44" customWidth="1"/>
     <col min="1539" max="1539" width="6" style="44" customWidth="1"/>
-    <col min="1540" max="1540" width="11.85546875" style="44" customWidth="1"/>
-    <col min="1541" max="1541" width="6.5703125" style="44" customWidth="1"/>
+    <col min="1540" max="1540" width="11.88671875" style="44" customWidth="1"/>
+    <col min="1541" max="1541" width="6.5546875" style="44" customWidth="1"/>
     <col min="1542" max="1542" width="8" style="44" customWidth="1"/>
     <col min="1543" max="1543" width="4" style="44" customWidth="1"/>
-    <col min="1544" max="1544" width="13.28515625" style="44" customWidth="1"/>
-    <col min="1545" max="1545" width="10.140625" style="44" customWidth="1"/>
-    <col min="1546" max="1546" width="2.28515625" style="44" customWidth="1"/>
-    <col min="1547" max="1547" width="13.42578125" style="44" customWidth="1"/>
+    <col min="1544" max="1544" width="13.33203125" style="44" customWidth="1"/>
+    <col min="1545" max="1545" width="10.109375" style="44" customWidth="1"/>
+    <col min="1546" max="1546" width="2.33203125" style="44" customWidth="1"/>
+    <col min="1547" max="1547" width="13.44140625" style="44" customWidth="1"/>
     <col min="1548" max="1548" width="12" style="44" customWidth="1"/>
-    <col min="1549" max="1549" width="12.5703125" style="44" customWidth="1"/>
-    <col min="1550" max="1792" width="9.140625" style="44"/>
-    <col min="1793" max="1793" width="8.5703125" style="44" customWidth="1"/>
-    <col min="1794" max="1794" width="5.140625" style="44" customWidth="1"/>
+    <col min="1549" max="1549" width="12.5546875" style="44" customWidth="1"/>
+    <col min="1550" max="1792" width="9.109375" style="44"/>
+    <col min="1793" max="1793" width="8.5546875" style="44" customWidth="1"/>
+    <col min="1794" max="1794" width="5.109375" style="44" customWidth="1"/>
     <col min="1795" max="1795" width="6" style="44" customWidth="1"/>
-    <col min="1796" max="1796" width="11.85546875" style="44" customWidth="1"/>
-    <col min="1797" max="1797" width="6.5703125" style="44" customWidth="1"/>
+    <col min="1796" max="1796" width="11.88671875" style="44" customWidth="1"/>
+    <col min="1797" max="1797" width="6.5546875" style="44" customWidth="1"/>
     <col min="1798" max="1798" width="8" style="44" customWidth="1"/>
     <col min="1799" max="1799" width="4" style="44" customWidth="1"/>
-    <col min="1800" max="1800" width="13.28515625" style="44" customWidth="1"/>
-    <col min="1801" max="1801" width="10.140625" style="44" customWidth="1"/>
-    <col min="1802" max="1802" width="2.28515625" style="44" customWidth="1"/>
-    <col min="1803" max="1803" width="13.42578125" style="44" customWidth="1"/>
+    <col min="1800" max="1800" width="13.33203125" style="44" customWidth="1"/>
+    <col min="1801" max="1801" width="10.109375" style="44" customWidth="1"/>
+    <col min="1802" max="1802" width="2.33203125" style="44" customWidth="1"/>
+    <col min="1803" max="1803" width="13.44140625" style="44" customWidth="1"/>
     <col min="1804" max="1804" width="12" style="44" customWidth="1"/>
-    <col min="1805" max="1805" width="12.5703125" style="44" customWidth="1"/>
-    <col min="1806" max="2048" width="9.140625" style="44"/>
-    <col min="2049" max="2049" width="8.5703125" style="44" customWidth="1"/>
-    <col min="2050" max="2050" width="5.140625" style="44" customWidth="1"/>
+    <col min="1805" max="1805" width="12.5546875" style="44" customWidth="1"/>
+    <col min="1806" max="2048" width="9.109375" style="44"/>
+    <col min="2049" max="2049" width="8.5546875" style="44" customWidth="1"/>
+    <col min="2050" max="2050" width="5.109375" style="44" customWidth="1"/>
     <col min="2051" max="2051" width="6" style="44" customWidth="1"/>
-    <col min="2052" max="2052" width="11.85546875" style="44" customWidth="1"/>
-    <col min="2053" max="2053" width="6.5703125" style="44" customWidth="1"/>
+    <col min="2052" max="2052" width="11.88671875" style="44" customWidth="1"/>
+    <col min="2053" max="2053" width="6.5546875" style="44" customWidth="1"/>
     <col min="2054" max="2054" width="8" style="44" customWidth="1"/>
     <col min="2055" max="2055" width="4" style="44" customWidth="1"/>
-    <col min="2056" max="2056" width="13.28515625" style="44" customWidth="1"/>
-    <col min="2057" max="2057" width="10.140625" style="44" customWidth="1"/>
-    <col min="2058" max="2058" width="2.28515625" style="44" customWidth="1"/>
-    <col min="2059" max="2059" width="13.42578125" style="44" customWidth="1"/>
+    <col min="2056" max="2056" width="13.33203125" style="44" customWidth="1"/>
+    <col min="2057" max="2057" width="10.109375" style="44" customWidth="1"/>
+    <col min="2058" max="2058" width="2.33203125" style="44" customWidth="1"/>
+    <col min="2059" max="2059" width="13.44140625" style="44" customWidth="1"/>
     <col min="2060" max="2060" width="12" style="44" customWidth="1"/>
-    <col min="2061" max="2061" width="12.5703125" style="44" customWidth="1"/>
-    <col min="2062" max="2304" width="9.140625" style="44"/>
-    <col min="2305" max="2305" width="8.5703125" style="44" customWidth="1"/>
-    <col min="2306" max="2306" width="5.140625" style="44" customWidth="1"/>
+    <col min="2061" max="2061" width="12.5546875" style="44" customWidth="1"/>
+    <col min="2062" max="2304" width="9.109375" style="44"/>
+    <col min="2305" max="2305" width="8.5546875" style="44" customWidth="1"/>
+    <col min="2306" max="2306" width="5.109375" style="44" customWidth="1"/>
     <col min="2307" max="2307" width="6" style="44" customWidth="1"/>
-    <col min="2308" max="2308" width="11.85546875" style="44" customWidth="1"/>
-    <col min="2309" max="2309" width="6.5703125" style="44" customWidth="1"/>
+    <col min="2308" max="2308" width="11.88671875" style="44" customWidth="1"/>
+    <col min="2309" max="2309" width="6.5546875" style="44" customWidth="1"/>
     <col min="2310" max="2310" width="8" style="44" customWidth="1"/>
     <col min="2311" max="2311" width="4" style="44" customWidth="1"/>
-    <col min="2312" max="2312" width="13.28515625" style="44" customWidth="1"/>
-    <col min="2313" max="2313" width="10.140625" style="44" customWidth="1"/>
-    <col min="2314" max="2314" width="2.28515625" style="44" customWidth="1"/>
-    <col min="2315" max="2315" width="13.42578125" style="44" customWidth="1"/>
+    <col min="2312" max="2312" width="13.33203125" style="44" customWidth="1"/>
+    <col min="2313" max="2313" width="10.109375" style="44" customWidth="1"/>
+    <col min="2314" max="2314" width="2.33203125" style="44" customWidth="1"/>
+    <col min="2315" max="2315" width="13.44140625" style="44" customWidth="1"/>
     <col min="2316" max="2316" width="12" style="44" customWidth="1"/>
-    <col min="2317" max="2317" width="12.5703125" style="44" customWidth="1"/>
-    <col min="2318" max="2560" width="9.140625" style="44"/>
-    <col min="2561" max="2561" width="8.5703125" style="44" customWidth="1"/>
-    <col min="2562" max="2562" width="5.140625" style="44" customWidth="1"/>
+    <col min="2317" max="2317" width="12.5546875" style="44" customWidth="1"/>
+    <col min="2318" max="2560" width="9.109375" style="44"/>
+    <col min="2561" max="2561" width="8.5546875" style="44" customWidth="1"/>
+    <col min="2562" max="2562" width="5.109375" style="44" customWidth="1"/>
     <col min="2563" max="2563" width="6" style="44" customWidth="1"/>
-    <col min="2564" max="2564" width="11.85546875" style="44" customWidth="1"/>
-    <col min="2565" max="2565" width="6.5703125" style="44" customWidth="1"/>
+    <col min="2564" max="2564" width="11.88671875" style="44" customWidth="1"/>
+    <col min="2565" max="2565" width="6.5546875" style="44" customWidth="1"/>
     <col min="2566" max="2566" width="8" style="44" customWidth="1"/>
     <col min="2567" max="2567" width="4" style="44" customWidth="1"/>
-    <col min="2568" max="2568" width="13.28515625" style="44" customWidth="1"/>
-    <col min="2569" max="2569" width="10.140625" style="44" customWidth="1"/>
-    <col min="2570" max="2570" width="2.28515625" style="44" customWidth="1"/>
-    <col min="2571" max="2571" width="13.42578125" style="44" customWidth="1"/>
+    <col min="2568" max="2568" width="13.33203125" style="44" customWidth="1"/>
+    <col min="2569" max="2569" width="10.109375" style="44" customWidth="1"/>
+    <col min="2570" max="2570" width="2.33203125" style="44" customWidth="1"/>
+    <col min="2571" max="2571" width="13.44140625" style="44" customWidth="1"/>
     <col min="2572" max="2572" width="12" style="44" customWidth="1"/>
-    <col min="2573" max="2573" width="12.5703125" style="44" customWidth="1"/>
-    <col min="2574" max="2816" width="9.140625" style="44"/>
-    <col min="2817" max="2817" width="8.5703125" style="44" customWidth="1"/>
-    <col min="2818" max="2818" width="5.140625" style="44" customWidth="1"/>
+    <col min="2573" max="2573" width="12.5546875" style="44" customWidth="1"/>
+    <col min="2574" max="2816" width="9.109375" style="44"/>
+    <col min="2817" max="2817" width="8.5546875" style="44" customWidth="1"/>
+    <col min="2818" max="2818" width="5.109375" style="44" customWidth="1"/>
     <col min="2819" max="2819" width="6" style="44" customWidth="1"/>
-    <col min="2820" max="2820" width="11.85546875" style="44" customWidth="1"/>
-    <col min="2821" max="2821" width="6.5703125" style="44" customWidth="1"/>
+    <col min="2820" max="2820" width="11.88671875" style="44" customWidth="1"/>
+    <col min="2821" max="2821" width="6.5546875" style="44" customWidth="1"/>
     <col min="2822" max="2822" width="8" style="44" customWidth="1"/>
     <col min="2823" max="2823" width="4" style="44" customWidth="1"/>
-    <col min="2824" max="2824" width="13.28515625" style="44" customWidth="1"/>
-    <col min="2825" max="2825" width="10.140625" style="44" customWidth="1"/>
-    <col min="2826" max="2826" width="2.28515625" style="44" customWidth="1"/>
-    <col min="2827" max="2827" width="13.42578125" style="44" customWidth="1"/>
+    <col min="2824" max="2824" width="13.33203125" style="44" customWidth="1"/>
+    <col min="2825" max="2825" width="10.109375" style="44" customWidth="1"/>
+    <col min="2826" max="2826" width="2.33203125" style="44" customWidth="1"/>
+    <col min="2827" max="2827" width="13.44140625" style="44" customWidth="1"/>
     <col min="2828" max="2828" width="12" style="44" customWidth="1"/>
-    <col min="2829" max="2829" width="12.5703125" style="44" customWidth="1"/>
-    <col min="2830" max="3072" width="9.140625" style="44"/>
-    <col min="3073" max="3073" width="8.5703125" style="44" customWidth="1"/>
-    <col min="3074" max="3074" width="5.140625" style="44" customWidth="1"/>
+    <col min="2829" max="2829" width="12.5546875" style="44" customWidth="1"/>
+    <col min="2830" max="3072" width="9.109375" style="44"/>
+    <col min="3073" max="3073" width="8.5546875" style="44" customWidth="1"/>
+    <col min="3074" max="3074" width="5.109375" style="44" customWidth="1"/>
     <col min="3075" max="3075" width="6" style="44" customWidth="1"/>
-    <col min="3076" max="3076" width="11.85546875" style="44" customWidth="1"/>
-    <col min="3077" max="3077" width="6.5703125" style="44" customWidth="1"/>
+    <col min="3076" max="3076" width="11.88671875" style="44" customWidth="1"/>
+    <col min="3077" max="3077" width="6.5546875" style="44" customWidth="1"/>
     <col min="3078" max="3078" width="8" style="44" customWidth="1"/>
     <col min="3079" max="3079" width="4" style="44" customWidth="1"/>
-    <col min="3080" max="3080" width="13.28515625" style="44" customWidth="1"/>
-    <col min="3081" max="3081" width="10.140625" style="44" customWidth="1"/>
-    <col min="3082" max="3082" width="2.28515625" style="44" customWidth="1"/>
-    <col min="3083" max="3083" width="13.42578125" style="44" customWidth="1"/>
+    <col min="3080" max="3080" width="13.33203125" style="44" customWidth="1"/>
+    <col min="3081" max="3081" width="10.109375" style="44" customWidth="1"/>
+    <col min="3082" max="3082" width="2.33203125" style="44" customWidth="1"/>
+    <col min="3083" max="3083" width="13.44140625" style="44" customWidth="1"/>
     <col min="3084" max="3084" width="12" style="44" customWidth="1"/>
-    <col min="3085" max="3085" width="12.5703125" style="44" customWidth="1"/>
-    <col min="3086" max="3328" width="9.140625" style="44"/>
-    <col min="3329" max="3329" width="8.5703125" style="44" customWidth="1"/>
-    <col min="3330" max="3330" width="5.140625" style="44" customWidth="1"/>
+    <col min="3085" max="3085" width="12.5546875" style="44" customWidth="1"/>
+    <col min="3086" max="3328" width="9.109375" style="44"/>
+    <col min="3329" max="3329" width="8.5546875" style="44" customWidth="1"/>
+    <col min="3330" max="3330" width="5.109375" style="44" customWidth="1"/>
     <col min="3331" max="3331" width="6" style="44" customWidth="1"/>
-    <col min="3332" max="3332" width="11.85546875" style="44" customWidth="1"/>
-    <col min="3333" max="3333" width="6.5703125" style="44" customWidth="1"/>
+    <col min="3332" max="3332" width="11.88671875" style="44" customWidth="1"/>
+    <col min="3333" max="3333" width="6.5546875" style="44" customWidth="1"/>
     <col min="3334" max="3334" width="8" style="44" customWidth="1"/>
     <col min="3335" max="3335" width="4" style="44" customWidth="1"/>
-    <col min="3336" max="3336" width="13.28515625" style="44" customWidth="1"/>
-    <col min="3337" max="3337" width="10.140625" style="44" customWidth="1"/>
-    <col min="3338" max="3338" width="2.28515625" style="44" customWidth="1"/>
-    <col min="3339" max="3339" width="13.42578125" style="44" customWidth="1"/>
+    <col min="3336" max="3336" width="13.33203125" style="44" customWidth="1"/>
+    <col min="3337" max="3337" width="10.109375" style="44" customWidth="1"/>
+    <col min="3338" max="3338" width="2.33203125" style="44" customWidth="1"/>
+    <col min="3339" max="3339" width="13.44140625" style="44" customWidth="1"/>
     <col min="3340" max="3340" width="12" style="44" customWidth="1"/>
-    <col min="3341" max="3341" width="12.5703125" style="44" customWidth="1"/>
-    <col min="3342" max="3584" width="9.140625" style="44"/>
-    <col min="3585" max="3585" width="8.5703125" style="44" customWidth="1"/>
-    <col min="3586" max="3586" width="5.140625" style="44" customWidth="1"/>
+    <col min="3341" max="3341" width="12.5546875" style="44" customWidth="1"/>
+    <col min="3342" max="3584" width="9.109375" style="44"/>
+    <col min="3585" max="3585" width="8.5546875" style="44" customWidth="1"/>
+    <col min="3586" max="3586" width="5.109375" style="44" customWidth="1"/>
     <col min="3587" max="3587" width="6" style="44" customWidth="1"/>
-    <col min="3588" max="3588" width="11.85546875" style="44" customWidth="1"/>
-    <col min="3589" max="3589" width="6.5703125" style="44" customWidth="1"/>
+    <col min="3588" max="3588" width="11.88671875" style="44" customWidth="1"/>
+    <col min="3589" max="3589" width="6.5546875" style="44" customWidth="1"/>
     <col min="3590" max="3590" width="8" style="44" customWidth="1"/>
     <col min="3591" max="3591" width="4" style="44" customWidth="1"/>
-    <col min="3592" max="3592" width="13.28515625" style="44" customWidth="1"/>
-    <col min="3593" max="3593" width="10.140625" style="44" customWidth="1"/>
-    <col min="3594" max="3594" width="2.28515625" style="44" customWidth="1"/>
-    <col min="3595" max="3595" width="13.42578125" style="44" customWidth="1"/>
+    <col min="3592" max="3592" width="13.33203125" style="44" customWidth="1"/>
+    <col min="3593" max="3593" width="10.109375" style="44" customWidth="1"/>
+    <col min="3594" max="3594" width="2.33203125" style="44" customWidth="1"/>
+    <col min="3595" max="3595" width="13.44140625" style="44" customWidth="1"/>
     <col min="3596" max="3596" width="12" style="44" customWidth="1"/>
-    <col min="3597" max="3597" width="12.5703125" style="44" customWidth="1"/>
-    <col min="3598" max="3840" width="9.140625" style="44"/>
-    <col min="3841" max="3841" width="8.5703125" style="44" customWidth="1"/>
-    <col min="3842" max="3842" width="5.140625" style="44" customWidth="1"/>
+    <col min="3597" max="3597" width="12.5546875" style="44" customWidth="1"/>
+    <col min="3598" max="3840" width="9.109375" style="44"/>
+    <col min="3841" max="3841" width="8.5546875" style="44" customWidth="1"/>
+    <col min="3842" max="3842" width="5.109375" style="44" customWidth="1"/>
     <col min="3843" max="3843" width="6" style="44" customWidth="1"/>
-    <col min="3844" max="3844" width="11.85546875" style="44" customWidth="1"/>
-    <col min="3845" max="3845" width="6.5703125" style="44" customWidth="1"/>
+    <col min="3844" max="3844" width="11.88671875" style="44" customWidth="1"/>
+    <col min="3845" max="3845" width="6.5546875" style="44" customWidth="1"/>
     <col min="3846" max="3846" width="8" style="44" customWidth="1"/>
     <col min="3847" max="3847" width="4" style="44" customWidth="1"/>
-    <col min="3848" max="3848" width="13.28515625" style="44" customWidth="1"/>
-    <col min="3849" max="3849" width="10.140625" style="44" customWidth="1"/>
-    <col min="3850" max="3850" width="2.28515625" style="44" customWidth="1"/>
-    <col min="3851" max="3851" width="13.42578125" style="44" customWidth="1"/>
+    <col min="3848" max="3848" width="13.33203125" style="44" customWidth="1"/>
+    <col min="3849" max="3849" width="10.109375" style="44" customWidth="1"/>
+    <col min="3850" max="3850" width="2.33203125" style="44" customWidth="1"/>
+    <col min="3851" max="3851" width="13.44140625" style="44" customWidth="1"/>
     <col min="3852" max="3852" width="12" style="44" customWidth="1"/>
-    <col min="3853" max="3853" width="12.5703125" style="44" customWidth="1"/>
-    <col min="3854" max="4096" width="9.140625" style="44"/>
-    <col min="4097" max="4097" width="8.5703125" style="44" customWidth="1"/>
-    <col min="4098" max="4098" width="5.140625" style="44" customWidth="1"/>
+    <col min="3853" max="3853" width="12.5546875" style="44" customWidth="1"/>
+    <col min="3854" max="4096" width="9.109375" style="44"/>
+    <col min="4097" max="4097" width="8.5546875" style="44" customWidth="1"/>
+    <col min="4098" max="4098" width="5.109375" style="44" customWidth="1"/>
     <col min="4099" max="4099" width="6" style="44" customWidth="1"/>
-    <col min="4100" max="4100" width="11.85546875" style="44" customWidth="1"/>
-    <col min="4101" max="4101" width="6.5703125" style="44" customWidth="1"/>
+    <col min="4100" max="4100" width="11.88671875" style="44" customWidth="1"/>
+    <col min="4101" max="4101" width="6.5546875" style="44" customWidth="1"/>
     <col min="4102" max="4102" width="8" style="44" customWidth="1"/>
     <col min="4103" max="4103" width="4" style="44" customWidth="1"/>
-    <col min="4104" max="4104" width="13.28515625" style="44" customWidth="1"/>
-    <col min="4105" max="4105" width="10.140625" style="44" customWidth="1"/>
-    <col min="4106" max="4106" width="2.28515625" style="44" customWidth="1"/>
-    <col min="4107" max="4107" width="13.42578125" style="44" customWidth="1"/>
+    <col min="4104" max="4104" width="13.33203125" style="44" customWidth="1"/>
+    <col min="4105" max="4105" width="10.109375" style="44" customWidth="1"/>
+    <col min="4106" max="4106" width="2.33203125" style="44" customWidth="1"/>
+    <col min="4107" max="4107" width="13.44140625" style="44" customWidth="1"/>
     <col min="4108" max="4108" width="12" style="44" customWidth="1"/>
-    <col min="4109" max="4109" width="12.5703125" style="44" customWidth="1"/>
-    <col min="4110" max="4352" width="9.140625" style="44"/>
-    <col min="4353" max="4353" width="8.5703125" style="44" customWidth="1"/>
-    <col min="4354" max="4354" width="5.140625" style="44" customWidth="1"/>
+    <col min="4109" max="4109" width="12.5546875" style="44" customWidth="1"/>
+    <col min="4110" max="4352" width="9.109375" style="44"/>
+    <col min="4353" max="4353" width="8.5546875" style="44" customWidth="1"/>
+    <col min="4354" max="4354" width="5.109375" style="44" customWidth="1"/>
     <col min="4355" max="4355" width="6" style="44" customWidth="1"/>
-    <col min="4356" max="4356" width="11.85546875" style="44" customWidth="1"/>
-    <col min="4357" max="4357" width="6.5703125" style="44" customWidth="1"/>
+    <col min="4356" max="4356" width="11.88671875" style="44" customWidth="1"/>
+    <col min="4357" max="4357" width="6.5546875" style="44" customWidth="1"/>
     <col min="4358" max="4358" width="8" style="44" customWidth="1"/>
     <col min="4359" max="4359" width="4" style="44" customWidth="1"/>
-    <col min="4360" max="4360" width="13.28515625" style="44" customWidth="1"/>
-    <col min="4361" max="4361" width="10.140625" style="44" customWidth="1"/>
-    <col min="4362" max="4362" width="2.28515625" style="44" customWidth="1"/>
-    <col min="4363" max="4363" width="13.42578125" style="44" customWidth="1"/>
+    <col min="4360" max="4360" width="13.33203125" style="44" customWidth="1"/>
+    <col min="4361" max="4361" width="10.109375" style="44" customWidth="1"/>
+    <col min="4362" max="4362" width="2.33203125" style="44" customWidth="1"/>
+    <col min="4363" max="4363" width="13.44140625" style="44" customWidth="1"/>
     <col min="4364" max="4364" width="12" style="44" customWidth="1"/>
-    <col min="4365" max="4365" width="12.5703125" style="44" customWidth="1"/>
-    <col min="4366" max="4608" width="9.140625" style="44"/>
-    <col min="4609" max="4609" width="8.5703125" style="44" customWidth="1"/>
-    <col min="4610" max="4610" width="5.140625" style="44" customWidth="1"/>
+    <col min="4365" max="4365" width="12.5546875" style="44" customWidth="1"/>
+    <col min="4366" max="4608" width="9.109375" style="44"/>
+    <col min="4609" max="4609" width="8.5546875" style="44" customWidth="1"/>
+    <col min="4610" max="4610" width="5.109375" style="44" customWidth="1"/>
     <col min="4611" max="4611" width="6" style="44" customWidth="1"/>
-    <col min="4612" max="4612" width="11.85546875" style="44" customWidth="1"/>
-    <col min="4613" max="4613" width="6.5703125" style="44" customWidth="1"/>
+    <col min="4612" max="4612" width="11.88671875" style="44" customWidth="1"/>
+    <col min="4613" max="4613" width="6.5546875" style="44" customWidth="1"/>
     <col min="4614" max="4614" width="8" style="44" customWidth="1"/>
     <col min="4615" max="4615" width="4" style="44" customWidth="1"/>
-    <col min="4616" max="4616" width="13.28515625" style="44" customWidth="1"/>
-    <col min="4617" max="4617" width="10.140625" style="44" customWidth="1"/>
-    <col min="4618" max="4618" width="2.28515625" style="44" customWidth="1"/>
-    <col min="4619" max="4619" width="13.42578125" style="44" customWidth="1"/>
+    <col min="4616" max="4616" width="13.33203125" style="44" customWidth="1"/>
+    <col min="4617" max="4617" width="10.109375" style="44" customWidth="1"/>
+    <col min="4618" max="4618" width="2.33203125" style="44" customWidth="1"/>
+    <col min="4619" max="4619" width="13.44140625" style="44" customWidth="1"/>
     <col min="4620" max="4620" width="12" style="44" customWidth="1"/>
-    <col min="4621" max="4621" width="12.5703125" style="44" customWidth="1"/>
-    <col min="4622" max="4864" width="9.140625" style="44"/>
-    <col min="4865" max="4865" width="8.5703125" style="44" customWidth="1"/>
-    <col min="4866" max="4866" width="5.140625" style="44" customWidth="1"/>
+    <col min="4621" max="4621" width="12.5546875" style="44" customWidth="1"/>
+    <col min="4622" max="4864" width="9.109375" style="44"/>
+    <col min="4865" max="4865" width="8.5546875" style="44" customWidth="1"/>
+    <col min="4866" max="4866" width="5.109375" style="44" customWidth="1"/>
     <col min="4867" max="4867" width="6" style="44" customWidth="1"/>
-    <col min="4868" max="4868" width="11.85546875" style="44" customWidth="1"/>
-    <col min="4869" max="4869" width="6.5703125" style="44" customWidth="1"/>
+    <col min="4868" max="4868" width="11.88671875" style="44" customWidth="1"/>
+    <col min="4869" max="4869" width="6.5546875" style="44" customWidth="1"/>
     <col min="4870" max="4870" width="8" style="44" customWidth="1"/>
     <col min="4871" max="4871" width="4" style="44" customWidth="1"/>
-    <col min="4872" max="4872" width="13.28515625" style="44" customWidth="1"/>
-    <col min="4873" max="4873" width="10.140625" style="44" customWidth="1"/>
-    <col min="4874" max="4874" width="2.28515625" style="44" customWidth="1"/>
-    <col min="4875" max="4875" width="13.42578125" style="44" customWidth="1"/>
+    <col min="4872" max="4872" width="13.33203125" style="44" customWidth="1"/>
+    <col min="4873" max="4873" width="10.109375" style="44" customWidth="1"/>
+    <col min="4874" max="4874" width="2.33203125" style="44" customWidth="1"/>
+    <col min="4875" max="4875" width="13.44140625" style="44" customWidth="1"/>
     <col min="4876" max="4876" width="12" style="44" customWidth="1"/>
-    <col min="4877" max="4877" width="12.5703125" style="44" customWidth="1"/>
-    <col min="4878" max="5120" width="9.140625" style="44"/>
-    <col min="5121" max="5121" width="8.5703125" style="44" customWidth="1"/>
-    <col min="5122" max="5122" width="5.140625" style="44" customWidth="1"/>
+    <col min="4877" max="4877" width="12.5546875" style="44" customWidth="1"/>
+    <col min="4878" max="5120" width="9.109375" style="44"/>
+    <col min="5121" max="5121" width="8.5546875" style="44" customWidth="1"/>
+    <col min="5122" max="5122" width="5.109375" style="44" customWidth="1"/>
     <col min="5123" max="5123" width="6" style="44" customWidth="1"/>
-    <col min="5124" max="5124" width="11.85546875" style="44" customWidth="1"/>
-    <col min="5125" max="5125" width="6.5703125" style="44" customWidth="1"/>
+    <col min="5124" max="5124" width="11.88671875" style="44" customWidth="1"/>
+    <col min="5125" max="5125" width="6.5546875" style="44" customWidth="1"/>
     <col min="5126" max="5126" width="8" style="44" customWidth="1"/>
     <col min="5127" max="5127" width="4" style="44" customWidth="1"/>
-    <col min="5128" max="5128" width="13.28515625" style="44" customWidth="1"/>
-    <col min="5129" max="5129" width="10.140625" style="44" customWidth="1"/>
-    <col min="5130" max="5130" width="2.28515625" style="44" customWidth="1"/>
-    <col min="5131" max="5131" width="13.42578125" style="44" customWidth="1"/>
+    <col min="5128" max="5128" width="13.33203125" style="44" customWidth="1"/>
+    <col min="5129" max="5129" width="10.109375" style="44" customWidth="1"/>
+    <col min="5130" max="5130" width="2.33203125" style="44" customWidth="1"/>
+    <col min="5131" max="5131" width="13.44140625" style="44" customWidth="1"/>
     <col min="5132" max="5132" width="12" style="44" customWidth="1"/>
-    <col min="5133" max="5133" width="12.5703125" style="44" customWidth="1"/>
-    <col min="5134" max="5376" width="9.140625" style="44"/>
-    <col min="5377" max="5377" width="8.5703125" style="44" customWidth="1"/>
-    <col min="5378" max="5378" width="5.140625" style="44" customWidth="1"/>
+    <col min="5133" max="5133" width="12.5546875" style="44" customWidth="1"/>
+    <col min="5134" max="5376" width="9.109375" style="44"/>
+    <col min="5377" max="5377" width="8.5546875" style="44" customWidth="1"/>
+    <col min="5378" max="5378" width="5.109375" style="44" customWidth="1"/>
     <col min="5379" max="5379" width="6" style="44" customWidth="1"/>
-    <col min="5380" max="5380" width="11.85546875" style="44" customWidth="1"/>
-    <col min="5381" max="5381" width="6.5703125" style="44" customWidth="1"/>
+    <col min="5380" max="5380" width="11.88671875" style="44" customWidth="1"/>
+    <col min="5381" max="5381" width="6.5546875" style="44" customWidth="1"/>
     <col min="5382" max="5382" width="8" style="44" customWidth="1"/>
     <col min="5383" max="5383" width="4" style="44" customWidth="1"/>
-    <col min="5384" max="5384" width="13.28515625" style="44" customWidth="1"/>
-    <col min="5385" max="5385" width="10.140625" style="44" customWidth="1"/>
-    <col min="5386" max="5386" width="2.28515625" style="44" customWidth="1"/>
-    <col min="5387" max="5387" width="13.42578125" style="44" customWidth="1"/>
+    <col min="5384" max="5384" width="13.33203125" style="44" customWidth="1"/>
+    <col min="5385" max="5385" width="10.109375" style="44" customWidth="1"/>
+    <col min="5386" max="5386" width="2.33203125" style="44" customWidth="1"/>
+    <col min="5387" max="5387" width="13.44140625" style="44" customWidth="1"/>
     <col min="5388" max="5388" width="12" style="44" customWidth="1"/>
-    <col min="5389" max="5389" width="12.5703125" style="44" customWidth="1"/>
-    <col min="5390" max="5632" width="9.140625" style="44"/>
-    <col min="5633" max="5633" width="8.5703125" style="44" customWidth="1"/>
-    <col min="5634" max="5634" width="5.140625" style="44" customWidth="1"/>
+    <col min="5389" max="5389" width="12.5546875" style="44" customWidth="1"/>
+    <col min="5390" max="5632" width="9.109375" style="44"/>
+    <col min="5633" max="5633" width="8.5546875" style="44" customWidth="1"/>
+    <col min="5634" max="5634" width="5.109375" style="44" customWidth="1"/>
     <col min="5635" max="5635" width="6" style="44" customWidth="1"/>
-    <col min="5636" max="5636" width="11.85546875" style="44" customWidth="1"/>
-    <col min="5637" max="5637" width="6.5703125" style="44" customWidth="1"/>
+    <col min="5636" max="5636" width="11.88671875" style="44" customWidth="1"/>
+    <col min="5637" max="5637" width="6.5546875" style="44" customWidth="1"/>
     <col min="5638" max="5638" width="8" style="44" customWidth="1"/>
     <col min="5639" max="5639" width="4" style="44" customWidth="1"/>
-    <col min="5640" max="5640" width="13.28515625" style="44" customWidth="1"/>
-    <col min="5641" max="5641" width="10.140625" style="44" customWidth="1"/>
-    <col min="5642" max="5642" width="2.28515625" style="44" customWidth="1"/>
-    <col min="5643" max="5643" width="13.42578125" style="44" customWidth="1"/>
+    <col min="5640" max="5640" width="13.33203125" style="44" customWidth="1"/>
+    <col min="5641" max="5641" width="10.109375" style="44" customWidth="1"/>
+    <col min="5642" max="5642" width="2.33203125" style="44" customWidth="1"/>
+    <col min="5643" max="5643" width="13.44140625" style="44" customWidth="1"/>
     <col min="5644" max="5644" width="12" style="44" customWidth="1"/>
-    <col min="5645" max="5645" width="12.5703125" style="44" customWidth="1"/>
-    <col min="5646" max="5888" width="9.140625" style="44"/>
-    <col min="5889" max="5889" width="8.5703125" style="44" customWidth="1"/>
-    <col min="5890" max="5890" width="5.140625" style="44" customWidth="1"/>
+    <col min="5645" max="5645" width="12.5546875" style="44" customWidth="1"/>
+    <col min="5646" max="5888" width="9.109375" style="44"/>
+    <col min="5889" max="5889" width="8.5546875" style="44" customWidth="1"/>
+    <col min="5890" max="5890" width="5.109375" style="44" customWidth="1"/>
     <col min="5891" max="5891" width="6" style="44" customWidth="1"/>
-    <col min="5892" max="5892" width="11.85546875" style="44" customWidth="1"/>
-    <col min="5893" max="5893" width="6.5703125" style="44" customWidth="1"/>
+    <col min="5892" max="5892" width="11.88671875" style="44" customWidth="1"/>
+    <col min="5893" max="5893" width="6.5546875" style="44" customWidth="1"/>
     <col min="5894" max="5894" width="8" style="44" customWidth="1"/>
     <col min="5895" max="5895" width="4" style="44" customWidth="1"/>
-    <col min="5896" max="5896" width="13.28515625" style="44" customWidth="1"/>
-    <col min="5897" max="5897" width="10.140625" style="44" customWidth="1"/>
-    <col min="5898" max="5898" width="2.28515625" style="44" customWidth="1"/>
-    <col min="5899" max="5899" width="13.42578125" style="44" customWidth="1"/>
+    <col min="5896" max="5896" width="13.33203125" style="44" customWidth="1"/>
+    <col min="5897" max="5897" width="10.109375" style="44" customWidth="1"/>
+    <col min="5898" max="5898" width="2.33203125" style="44" customWidth="1"/>
+    <col min="5899" max="5899" width="13.44140625" style="44" customWidth="1"/>
     <col min="5900" max="5900" width="12" style="44" customWidth="1"/>
-    <col min="5901" max="5901" width="12.5703125" style="44" customWidth="1"/>
-    <col min="5902" max="6144" width="9.140625" style="44"/>
-    <col min="6145" max="6145" width="8.5703125" style="44" customWidth="1"/>
-    <col min="6146" max="6146" width="5.140625" style="44" customWidth="1"/>
+    <col min="5901" max="5901" width="12.5546875" style="44" customWidth="1"/>
+    <col min="5902" max="6144" width="9.109375" style="44"/>
+    <col min="6145" max="6145" width="8.5546875" style="44" customWidth="1"/>
+    <col min="6146" max="6146" width="5.109375" style="44" customWidth="1"/>
     <col min="6147" max="6147" width="6" style="44" customWidth="1"/>
-    <col min="6148" max="6148" width="11.85546875" style="44" customWidth="1"/>
-    <col min="6149" max="6149" width="6.5703125" style="44" customWidth="1"/>
+    <col min="6148" max="6148" width="11.88671875" style="44" customWidth="1"/>
+    <col min="6149" max="6149" width="6.5546875" style="44" customWidth="1"/>
     <col min="6150" max="6150" width="8" style="44" customWidth="1"/>
     <col min="6151" max="6151" width="4" style="44" customWidth="1"/>
-    <col min="6152" max="6152" width="13.28515625" style="44" customWidth="1"/>
-    <col min="6153" max="6153" width="10.140625" style="44" customWidth="1"/>
-    <col min="6154" max="6154" width="2.28515625" style="44" customWidth="1"/>
-    <col min="6155" max="6155" width="13.42578125" style="44" customWidth="1"/>
+    <col min="6152" max="6152" width="13.33203125" style="44" customWidth="1"/>
+    <col min="6153" max="6153" width="10.109375" style="44" customWidth="1"/>
+    <col min="6154" max="6154" width="2.33203125" style="44" customWidth="1"/>
+    <col min="6155" max="6155" width="13.44140625" style="44" customWidth="1"/>
     <col min="6156" max="6156" width="12" style="44" customWidth="1"/>
-    <col min="6157" max="6157" width="12.5703125" style="44" customWidth="1"/>
-    <col min="6158" max="6400" width="9.140625" style="44"/>
-    <col min="6401" max="6401" width="8.5703125" style="44" customWidth="1"/>
-    <col min="6402" max="6402" width="5.140625" style="44" customWidth="1"/>
+    <col min="6157" max="6157" width="12.5546875" style="44" customWidth="1"/>
+    <col min="6158" max="6400" width="9.109375" style="44"/>
+    <col min="6401" max="6401" width="8.5546875" style="44" customWidth="1"/>
+    <col min="6402" max="6402" width="5.109375" style="44" customWidth="1"/>
     <col min="6403" max="6403" width="6" style="44" customWidth="1"/>
-    <col min="6404" max="6404" width="11.85546875" style="44" customWidth="1"/>
-    <col min="6405" max="6405" width="6.5703125" style="44" customWidth="1"/>
+    <col min="6404" max="6404" width="11.88671875" style="44" customWidth="1"/>
+    <col min="6405" max="6405" width="6.5546875" style="44" customWidth="1"/>
     <col min="6406" max="6406" width="8" style="44" customWidth="1"/>
     <col min="6407" max="6407" width="4" style="44" customWidth="1"/>
-    <col min="6408" max="6408" width="13.28515625" style="44" customWidth="1"/>
-    <col min="6409" max="6409" width="10.140625" style="44" customWidth="1"/>
-    <col min="6410" max="6410" width="2.28515625" style="44" customWidth="1"/>
-    <col min="6411" max="6411" width="13.42578125" style="44" customWidth="1"/>
+    <col min="6408" max="6408" width="13.33203125" style="44" customWidth="1"/>
+    <col min="6409" max="6409" width="10.109375" style="44" customWidth="1"/>
+    <col min="6410" max="6410" width="2.33203125" style="44" customWidth="1"/>
+    <col min="6411" max="6411" width="13.44140625" style="44" customWidth="1"/>
     <col min="6412" max="6412" width="12" style="44" customWidth="1"/>
-    <col min="6413" max="6413" width="12.5703125" style="44" customWidth="1"/>
-    <col min="6414" max="6656" width="9.140625" style="44"/>
-    <col min="6657" max="6657" width="8.5703125" style="44" customWidth="1"/>
-    <col min="6658" max="6658" width="5.140625" style="44" customWidth="1"/>
+    <col min="6413" max="6413" width="12.5546875" style="44" customWidth="1"/>
+    <col min="6414" max="6656" width="9.109375" style="44"/>
+    <col min="6657" max="6657" width="8.5546875" style="44" customWidth="1"/>
+    <col min="6658" max="6658" width="5.109375" style="44" customWidth="1"/>
     <col min="6659" max="6659" width="6" style="44" customWidth="1"/>
-    <col min="6660" max="6660" width="11.85546875" style="44" customWidth="1"/>
-    <col min="6661" max="6661" width="6.5703125" style="44" customWidth="1"/>
+    <col min="6660" max="6660" width="11.88671875" style="44" customWidth="1"/>
+    <col min="6661" max="6661" width="6.5546875" style="44" customWidth="1"/>
     <col min="6662" max="6662" width="8" style="44" customWidth="1"/>
     <col min="6663" max="6663" width="4" style="44" customWidth="1"/>
-    <col min="6664" max="6664" width="13.28515625" style="44" customWidth="1"/>
-    <col min="6665" max="6665" width="10.140625" style="44" customWidth="1"/>
-    <col min="6666" max="6666" width="2.28515625" style="44" customWidth="1"/>
-    <col min="6667" max="6667" width="13.42578125" style="44" customWidth="1"/>
+    <col min="6664" max="6664" width="13.33203125" style="44" customWidth="1"/>
+    <col min="6665" max="6665" width="10.109375" style="44" customWidth="1"/>
+    <col min="6666" max="6666" width="2.33203125" style="44" customWidth="1"/>
+    <col min="6667" max="6667" width="13.44140625" style="44" customWidth="1"/>
     <col min="6668" max="6668" width="12" style="44" customWidth="1"/>
-    <col min="6669" max="6669" width="12.5703125" style="44" customWidth="1"/>
-    <col min="6670" max="6912" width="9.140625" style="44"/>
-    <col min="6913" max="6913" width="8.5703125" style="44" customWidth="1"/>
-    <col min="6914" max="6914" width="5.140625" style="44" customWidth="1"/>
+    <col min="6669" max="6669" width="12.5546875" style="44" customWidth="1"/>
+    <col min="6670" max="6912" width="9.109375" style="44"/>
+    <col min="6913" max="6913" width="8.5546875" style="44" customWidth="1"/>
+    <col min="6914" max="6914" width="5.109375" style="44" customWidth="1"/>
     <col min="6915" max="6915" width="6" style="44" customWidth="1"/>
-    <col min="6916" max="6916" width="11.85546875" style="44" customWidth="1"/>
-    <col min="6917" max="6917" width="6.5703125" style="44" customWidth="1"/>
+    <col min="6916" max="6916" width="11.88671875" style="44" customWidth="1"/>
+    <col min="6917" max="6917" width="6.5546875" style="44" customWidth="1"/>
     <col min="6918" max="6918" width="8" style="44" customWidth="1"/>
     <col min="6919" max="6919" width="4" style="44" customWidth="1"/>
-    <col min="6920" max="6920" width="13.28515625" style="44" customWidth="1"/>
-    <col min="6921" max="6921" width="10.140625" style="44" customWidth="1"/>
-    <col min="6922" max="6922" width="2.28515625" style="44" customWidth="1"/>
-    <col min="6923" max="6923" width="13.42578125" style="44" customWidth="1"/>
+    <col min="6920" max="6920" width="13.33203125" style="44" customWidth="1"/>
+    <col min="6921" max="6921" width="10.109375" style="44" customWidth="1"/>
+    <col min="6922" max="6922" width="2.33203125" style="44" customWidth="1"/>
+    <col min="6923" max="6923" width="13.44140625" style="44" customWidth="1"/>
     <col min="6924" max="6924" width="12" style="44" customWidth="1"/>
-    <col min="6925" max="6925" width="12.5703125" style="44" customWidth="1"/>
-    <col min="6926" max="7168" width="9.140625" style="44"/>
-    <col min="7169" max="7169" width="8.5703125" style="44" customWidth="1"/>
-    <col min="7170" max="7170" width="5.140625" style="44" customWidth="1"/>
+    <col min="6925" max="6925" width="12.5546875" style="44" customWidth="1"/>
+    <col min="6926" max="7168" width="9.109375" style="44"/>
+    <col min="7169" max="7169" width="8.5546875" style="44" customWidth="1"/>
+    <col min="7170" max="7170" width="5.109375" style="44" customWidth="1"/>
     <col min="7171" max="7171" width="6" style="44" customWidth="1"/>
-    <col min="7172" max="7172" width="11.85546875" style="44" customWidth="1"/>
-    <col min="7173" max="7173" width="6.5703125" style="44" customWidth="1"/>
+    <col min="7172" max="7172" width="11.88671875" style="44" customWidth="1"/>
+    <col min="7173" max="7173" width="6.5546875" style="44" customWidth="1"/>
     <col min="7174" max="7174" width="8" style="44" customWidth="1"/>
     <col min="7175" max="7175" width="4" style="44" customWidth="1"/>
-    <col min="7176" max="7176" width="13.28515625" style="44" customWidth="1"/>
-    <col min="7177" max="7177" width="10.140625" style="44" customWidth="1"/>
-    <col min="7178" max="7178" width="2.28515625" style="44" customWidth="1"/>
-    <col min="7179" max="7179" width="13.42578125" style="44" customWidth="1"/>
+    <col min="7176" max="7176" width="13.33203125" style="44" customWidth="1"/>
+    <col min="7177" max="7177" width="10.109375" style="44" customWidth="1"/>
+    <col min="7178" max="7178" width="2.33203125" style="44" customWidth="1"/>
+    <col min="7179" max="7179" width="13.44140625" style="44" customWidth="1"/>
     <col min="7180" max="7180" width="12" style="44" customWidth="1"/>
-    <col min="7181" max="7181" width="12.5703125" style="44" customWidth="1"/>
-    <col min="7182" max="7424" width="9.140625" style="44"/>
-    <col min="7425" max="7425" width="8.5703125" style="44" customWidth="1"/>
-    <col min="7426" max="7426" width="5.140625" style="44" customWidth="1"/>
+    <col min="7181" max="7181" width="12.5546875" style="44" customWidth="1"/>
+    <col min="7182" max="7424" width="9.109375" style="44"/>
+    <col min="7425" max="7425" width="8.5546875" style="44" customWidth="1"/>
+    <col min="7426" max="7426" width="5.109375" style="44" customWidth="1"/>
     <col min="7427" max="7427" width="6" style="44" customWidth="1"/>
-    <col min="7428" max="7428" width="11.85546875" style="44" customWidth="1"/>
-    <col min="7429" max="7429" width="6.5703125" style="44" customWidth="1"/>
+    <col min="7428" max="7428" width="11.88671875" style="44" customWidth="1"/>
+    <col min="7429" max="7429" width="6.5546875" style="44" customWidth="1"/>
     <col min="7430" max="7430" width="8" style="44" customWidth="1"/>
     <col min="7431" max="7431" width="4" style="44" customWidth="1"/>
-    <col min="7432" max="7432" width="13.28515625" style="44" customWidth="1"/>
-    <col min="7433" max="7433" width="10.140625" style="44" customWidth="1"/>
-    <col min="7434" max="7434" width="2.28515625" style="44" customWidth="1"/>
-    <col min="7435" max="7435" width="13.42578125" style="44" customWidth="1"/>
+    <col min="7432" max="7432" width="13.33203125" style="44" customWidth="1"/>
+    <col min="7433" max="7433" width="10.109375" style="44" customWidth="1"/>
+    <col min="7434" max="7434" width="2.33203125" style="44" customWidth="1"/>
+    <col min="7435" max="7435" width="13.44140625" style="44" customWidth="1"/>
     <col min="7436" max="7436" width="12" style="44" customWidth="1"/>
-    <col min="7437" max="7437" width="12.5703125" style="44" customWidth="1"/>
-    <col min="7438" max="7680" width="9.140625" style="44"/>
-    <col min="7681" max="7681" width="8.5703125" style="44" customWidth="1"/>
-    <col min="7682" max="7682" width="5.140625" style="44" customWidth="1"/>
+    <col min="7437" max="7437" width="12.5546875" style="44" customWidth="1"/>
+    <col min="7438" max="7680" width="9.109375" style="44"/>
+    <col min="7681" max="7681" width="8.5546875" style="44" customWidth="1"/>
+    <col min="7682" max="7682" width="5.109375" style="44" customWidth="1"/>
     <col min="7683" max="7683" width="6" style="44" customWidth="1"/>
-    <col min="7684" max="7684" width="11.85546875" style="44" customWidth="1"/>
-    <col min="7685" max="7685" width="6.5703125" style="44" customWidth="1"/>
+    <col min="7684" max="7684" width="11.88671875" style="44" customWidth="1"/>
+    <col min="7685" max="7685" width="6.5546875" style="44" customWidth="1"/>
     <col min="7686" max="7686" width="8" style="44" customWidth="1"/>
     <col min="7687" max="7687" width="4" style="44" customWidth="1"/>
-    <col min="7688" max="7688" width="13.28515625" style="44" customWidth="1"/>
-    <col min="7689" max="7689" width="10.140625" style="44" customWidth="1"/>
-    <col min="7690" max="7690" width="2.28515625" style="44" customWidth="1"/>
-    <col min="7691" max="7691" width="13.42578125" style="44" customWidth="1"/>
+    <col min="7688" max="7688" width="13.33203125" style="44" customWidth="1"/>
+    <col min="7689" max="7689" width="10.109375" style="44" customWidth="1"/>
+    <col min="7690" max="7690" width="2.33203125" style="44" customWidth="1"/>
+    <col min="7691" max="7691" width="13.44140625" style="44" customWidth="1"/>
     <col min="7692" max="7692" width="12" style="44" customWidth="1"/>
-    <col min="7693" max="7693" width="12.5703125" style="44" customWidth="1"/>
-    <col min="7694" max="7936" width="9.140625" style="44"/>
-    <col min="7937" max="7937" width="8.5703125" style="44" customWidth="1"/>
-    <col min="7938" max="7938" width="5.140625" style="44" customWidth="1"/>
+    <col min="7693" max="7693" width="12.5546875" style="44" customWidth="1"/>
+    <col min="7694" max="7936" width="9.109375" style="44"/>
+    <col min="7937" max="7937" width="8.5546875" style="44" customWidth="1"/>
+    <col min="7938" max="7938" width="5.109375" style="44" customWidth="1"/>
     <col min="7939" max="7939" width="6" style="44" customWidth="1"/>
-    <col min="7940" max="7940" width="11.85546875" style="44" customWidth="1"/>
-    <col min="7941" max="7941" width="6.5703125" style="44" customWidth="1"/>
+    <col min="7940" max="7940" width="11.88671875" style="44" customWidth="1"/>
+    <col min="7941" max="7941" width="6.5546875" style="44" customWidth="1"/>
     <col min="7942" max="7942" width="8" style="44" customWidth="1"/>
     <col min="7943" max="7943" width="4" style="44" customWidth="1"/>
-    <col min="7944" max="7944" width="13.28515625" style="44" customWidth="1"/>
-    <col min="7945" max="7945" width="10.140625" style="44" customWidth="1"/>
-    <col min="7946" max="7946" width="2.28515625" style="44" customWidth="1"/>
-    <col min="7947" max="7947" width="13.42578125" style="44" customWidth="1"/>
+    <col min="7944" max="7944" width="13.33203125" style="44" customWidth="1"/>
+    <col min="7945" max="7945" width="10.109375" style="44" customWidth="1"/>
+    <col min="7946" max="7946" width="2.33203125" style="44" customWidth="1"/>
+    <col min="7947" max="7947" width="13.44140625" style="44" customWidth="1"/>
     <col min="7948" max="7948" width="12" style="44" customWidth="1"/>
-    <col min="7949" max="7949" width="12.5703125" style="44" customWidth="1"/>
-    <col min="7950" max="8192" width="9.140625" style="44"/>
-    <col min="8193" max="8193" width="8.5703125" style="44" customWidth="1"/>
-    <col min="8194" max="8194" width="5.140625" style="44" customWidth="1"/>
+    <col min="7949" max="7949" width="12.5546875" style="44" customWidth="1"/>
+    <col min="7950" max="8192" width="9.109375" style="44"/>
+    <col min="8193" max="8193" width="8.5546875" style="44" customWidth="1"/>
+    <col min="8194" max="8194" width="5.109375" style="44" customWidth="1"/>
     <col min="8195" max="8195" width="6" style="44" customWidth="1"/>
-    <col min="8196" max="8196" width="11.85546875" style="44" customWidth="1"/>
-    <col min="8197" max="8197" width="6.5703125" style="44" customWidth="1"/>
+    <col min="8196" max="8196" width="11.88671875" style="44" customWidth="1"/>
+    <col min="8197" max="8197" width="6.5546875" style="44" customWidth="1"/>
     <col min="8198" max="8198" width="8" style="44" customWidth="1"/>
     <col min="8199" max="8199" width="4" style="44" customWidth="1"/>
-    <col min="8200" max="8200" width="13.28515625" style="44" customWidth="1"/>
-    <col min="8201" max="8201" width="10.140625" style="44" customWidth="1"/>
-    <col min="8202" max="8202" width="2.28515625" style="44" customWidth="1"/>
-    <col min="8203" max="8203" width="13.42578125" style="44" customWidth="1"/>
+    <col min="8200" max="8200" width="13.33203125" style="44" customWidth="1"/>
+    <col min="8201" max="8201" width="10.109375" style="44" customWidth="1"/>
+    <col min="8202" max="8202" width="2.33203125" style="44" customWidth="1"/>
+    <col min="8203" max="8203" width="13.44140625" style="44" customWidth="1"/>
     <col min="8204" max="8204" width="12" style="44" customWidth="1"/>
-    <col min="8205" max="8205" width="12.5703125" style="44" customWidth="1"/>
-    <col min="8206" max="8448" width="9.140625" style="44"/>
-    <col min="8449" max="8449" width="8.5703125" style="44" customWidth="1"/>
-    <col min="8450" max="8450" width="5.140625" style="44" customWidth="1"/>
+    <col min="8205" max="8205" width="12.5546875" style="44" customWidth="1"/>
+    <col min="8206" max="8448" width="9.109375" style="44"/>
+    <col min="8449" max="8449" width="8.5546875" style="44" customWidth="1"/>
+    <col min="8450" max="8450" width="5.109375" style="44" customWidth="1"/>
     <col min="8451" max="8451" width="6" style="44" customWidth="1"/>
-    <col min="8452" max="8452" width="11.85546875" style="44" customWidth="1"/>
-    <col min="8453" max="8453" width="6.5703125" style="44" customWidth="1"/>
+    <col min="8452" max="8452" width="11.88671875" style="44" customWidth="1"/>
+    <col min="8453" max="8453" width="6.5546875" style="44" customWidth="1"/>
     <col min="8454" max="8454" width="8" style="44" customWidth="1"/>
     <col min="8455" max="8455" width="4" style="44" customWidth="1"/>
-    <col min="8456" max="8456" width="13.28515625" style="44" customWidth="1"/>
-    <col min="8457" max="8457" width="10.140625" style="44" customWidth="1"/>
-    <col min="8458" max="8458" width="2.28515625" style="44" customWidth="1"/>
-    <col min="8459" max="8459" width="13.42578125" style="44" customWidth="1"/>
+    <col min="8456" max="8456" width="13.33203125" style="44" customWidth="1"/>
+    <col min="8457" max="8457" width="10.109375" style="44" customWidth="1"/>
+    <col min="8458" max="8458" width="2.33203125" style="44" customWidth="1"/>
+    <col min="8459" max="8459" width="13.44140625" style="44" customWidth="1"/>
     <col min="8460" max="8460" width="12" style="44" customWidth="1"/>
-    <col min="8461" max="8461" width="12.5703125" style="44" customWidth="1"/>
-    <col min="8462" max="8704" width="9.140625" style="44"/>
-    <col min="8705" max="8705" width="8.5703125" style="44" customWidth="1"/>
-    <col min="8706" max="8706" width="5.140625" style="44" customWidth="1"/>
+    <col min="8461" max="8461" width="12.5546875" style="44" customWidth="1"/>
+    <col min="8462" max="8704" width="9.109375" style="44"/>
+    <col min="8705" max="8705" width="8.5546875" style="44" customWidth="1"/>
+    <col min="8706" max="8706" width="5.109375" style="44" customWidth="1"/>
     <col min="8707" max="8707" width="6" style="44" customWidth="1"/>
-    <col min="8708" max="8708" width="11.85546875" style="44" customWidth="1"/>
-    <col min="8709" max="8709" width="6.5703125" style="44" customWidth="1"/>
+    <col min="8708" max="8708" width="11.88671875" style="44" customWidth="1"/>
+    <col min="8709" max="8709" width="6.5546875" style="44" customWidth="1"/>
     <col min="8710" max="8710" width="8" style="44" customWidth="1"/>
     <col min="8711" max="8711" width="4" style="44" customWidth="1"/>
-    <col min="8712" max="8712" width="13.28515625" style="44" customWidth="1"/>
-    <col min="8713" max="8713" width="10.140625" style="44" customWidth="1"/>
-    <col min="8714" max="8714" width="2.28515625" style="44" customWidth="1"/>
-    <col min="8715" max="8715" width="13.42578125" style="44" customWidth="1"/>
+    <col min="8712" max="8712" width="13.33203125" style="44" customWidth="1"/>
+    <col min="8713" max="8713" width="10.109375" style="44" customWidth="1"/>
+    <col min="8714" max="8714" width="2.33203125" style="44" customWidth="1"/>
+    <col min="8715" max="8715" width="13.44140625" style="44" customWidth="1"/>
     <col min="8716" max="8716" width="12" style="44" customWidth="1"/>
-    <col min="8717" max="8717" width="12.5703125" style="44" customWidth="1"/>
-    <col min="8718" max="8960" width="9.140625" style="44"/>
-    <col min="8961" max="8961" width="8.5703125" style="44" customWidth="1"/>
-    <col min="8962" max="8962" width="5.140625" style="44" customWidth="1"/>
+    <col min="8717" max="8717" width="12.5546875" style="44" customWidth="1"/>
+    <col min="8718" max="8960" width="9.109375" style="44"/>
+    <col min="8961" max="8961" width="8.5546875" style="44" customWidth="1"/>
+    <col min="8962" max="8962" width="5.109375" style="44" customWidth="1"/>
     <col min="8963" max="8963" width="6" style="44" customWidth="1"/>
-    <col min="8964" max="8964" width="11.85546875" style="44" customWidth="1"/>
-    <col min="8965" max="8965" width="6.5703125" style="44" customWidth="1"/>
+    <col min="8964" max="8964" width="11.88671875" style="44" customWidth="1"/>
+    <col min="8965" max="8965" width="6.5546875" style="44" customWidth="1"/>
     <col min="8966" max="8966" width="8" style="44" customWidth="1"/>
     <col min="8967" max="8967" width="4" style="44" customWidth="1"/>
-    <col min="8968" max="8968" width="13.28515625" style="44" customWidth="1"/>
-    <col min="8969" max="8969" width="10.140625" style="44" customWidth="1"/>
-    <col min="8970" max="8970" width="2.28515625" style="44" customWidth="1"/>
-    <col min="8971" max="8971" width="13.42578125" style="44" customWidth="1"/>
+    <col min="8968" max="8968" width="13.33203125" style="44" customWidth="1"/>
+    <col min="8969" max="8969" width="10.109375" style="44" customWidth="1"/>
+    <col min="8970" max="8970" width="2.33203125" style="44" customWidth="1"/>
+    <col min="8971" max="8971" width="13.44140625" style="44" customWidth="1"/>
     <col min="8972" max="8972" width="12" style="44" customWidth="1"/>
-    <col min="8973" max="8973" width="12.5703125" style="44" customWidth="1"/>
-    <col min="8974" max="9216" width="9.140625" style="44"/>
-    <col min="9217" max="9217" width="8.5703125" style="44" customWidth="1"/>
-    <col min="9218" max="9218" width="5.140625" style="44" customWidth="1"/>
+    <col min="8973" max="8973" width="12.5546875" style="44" customWidth="1"/>
+    <col min="8974" max="9216" width="9.109375" style="44"/>
+    <col min="9217" max="9217" width="8.5546875" style="44" customWidth="1"/>
+    <col min="9218" max="9218" width="5.109375" style="44" customWidth="1"/>
     <col min="9219" max="9219" width="6" style="44" customWidth="1"/>
-    <col min="9220" max="9220" width="11.85546875" style="44" customWidth="1"/>
-    <col min="9221" max="9221" width="6.5703125" style="44" customWidth="1"/>
+    <col min="9220" max="9220" width="11.88671875" style="44" customWidth="1"/>
+    <col min="9221" max="9221" width="6.5546875" style="44" customWidth="1"/>
     <col min="9222" max="9222" width="8" style="44" customWidth="1"/>
     <col min="9223" max="9223" width="4" style="44" customWidth="1"/>
-    <col min="9224" max="9224" width="13.28515625" style="44" customWidth="1"/>
-    <col min="9225" max="9225" width="10.140625" style="44" customWidth="1"/>
-    <col min="9226" max="9226" width="2.28515625" style="44" customWidth="1"/>
-    <col min="9227" max="9227" width="13.42578125" style="44" customWidth="1"/>
+    <col min="9224" max="9224" width="13.33203125" style="44" customWidth="1"/>
+    <col min="9225" max="9225" width="10.109375" style="44" customWidth="1"/>
+    <col min="9226" max="9226" width="2.33203125" style="44" customWidth="1"/>
+    <col min="9227" max="9227" width="13.44140625" style="44" customWidth="1"/>
     <col min="9228" max="9228" width="12" style="44" customWidth="1"/>
-    <col min="9229" max="9229" width="12.5703125" style="44" customWidth="1"/>
-    <col min="9230" max="9472" width="9.140625" style="44"/>
-    <col min="9473" max="9473" width="8.5703125" style="44" customWidth="1"/>
-    <col min="9474" max="9474" width="5.140625" style="44" customWidth="1"/>
+    <col min="9229" max="9229" width="12.5546875" style="44" customWidth="1"/>
+    <col min="9230" max="9472" width="9.109375" style="44"/>
+    <col min="9473" max="9473" width="8.5546875" style="44" customWidth="1"/>
+    <col min="9474" max="9474" width="5.109375" style="44" customWidth="1"/>
     <col min="9475" max="9475" width="6" style="44" customWidth="1"/>
-    <col min="9476" max="9476" width="11.85546875" style="44" customWidth="1"/>
-    <col min="9477" max="9477" width="6.5703125" style="44" customWidth="1"/>
+    <col min="9476" max="9476" width="11.88671875" style="44" customWidth="1"/>
+    <col min="9477" max="9477" width="6.5546875" style="44" customWidth="1"/>
     <col min="9478" max="9478" width="8" style="44" customWidth="1"/>
     <col min="9479" max="9479" width="4" style="44" customWidth="1"/>
-    <col min="9480" max="9480" width="13.28515625" style="44" customWidth="1"/>
-    <col min="9481" max="9481" width="10.140625" style="44" customWidth="1"/>
-    <col min="9482" max="9482" width="2.28515625" style="44" customWidth="1"/>
-    <col min="9483" max="9483" width="13.42578125" style="44" customWidth="1"/>
+    <col min="9480" max="9480" width="13.33203125" style="44" customWidth="1"/>
+    <col min="9481" max="9481" width="10.109375" style="44" customWidth="1"/>
+    <col min="9482" max="9482" width="2.33203125" style="44" customWidth="1"/>
+    <col min="9483" max="9483" width="13.44140625" style="44" customWidth="1"/>
     <col min="9484" max="9484" width="12" style="44" customWidth="1"/>
-    <col min="9485" max="9485" width="12.5703125" style="44" customWidth="1"/>
-    <col min="9486" max="9728" width="9.140625" style="44"/>
-    <col min="9729" max="9729" width="8.5703125" style="44" customWidth="1"/>
-    <col min="9730" max="9730" width="5.140625" style="44" customWidth="1"/>
+    <col min="9485" max="9485" width="12.5546875" style="44" customWidth="1"/>
+    <col min="9486" max="9728" width="9.109375" style="44"/>
+    <col min="9729" max="9729" width="8.5546875" style="44" customWidth="1"/>
+    <col min="9730" max="9730" width="5.109375" style="44" customWidth="1"/>
     <col min="9731" max="9731" width="6" style="44" customWidth="1"/>
-    <col min="9732" max="9732" width="11.85546875" style="44" customWidth="1"/>
-    <col min="9733" max="9733" width="6.5703125" style="44" customWidth="1"/>
+    <col min="9732" max="9732" width="11.88671875" style="44" customWidth="1"/>
+    <col min="9733" max="9733" width="6.5546875" style="44" customWidth="1"/>
     <col min="9734" max="9734" width="8" style="44" customWidth="1"/>
     <col min="9735" max="9735" width="4" style="44" customWidth="1"/>
-    <col min="9736" max="9736" width="13.28515625" style="44" customWidth="1"/>
-    <col min="9737" max="9737" width="10.140625" style="44" customWidth="1"/>
-    <col min="9738" max="9738" width="2.28515625" style="44" customWidth="1"/>
-    <col min="9739" max="9739" width="13.42578125" style="44" customWidth="1"/>
+    <col min="9736" max="9736" width="13.33203125" style="44" customWidth="1"/>
+    <col min="9737" max="9737" width="10.109375" style="44" customWidth="1"/>
+    <col min="9738" max="9738" width="2.33203125" style="44" customWidth="1"/>
+    <col min="9739" max="9739" width="13.44140625" style="44" customWidth="1"/>
     <col min="9740" max="9740" width="12" style="44" customWidth="1"/>
-    <col min="9741" max="9741" width="12.5703125" style="44" customWidth="1"/>
-    <col min="9742" max="9984" width="9.140625" style="44"/>
-    <col min="9985" max="9985" width="8.5703125" style="44" customWidth="1"/>
-    <col min="9986" max="9986" width="5.140625" style="44" customWidth="1"/>
+    <col min="9741" max="9741" width="12.5546875" style="44" customWidth="1"/>
+    <col min="9742" max="9984" width="9.109375" style="44"/>
+    <col min="9985" max="9985" width="8.5546875" style="44" customWidth="1"/>
+    <col min="9986" max="9986" width="5.109375" style="44" customWidth="1"/>
     <col min="9987" max="9987" width="6" style="44" customWidth="1"/>
-    <col min="9988" max="9988" width="11.85546875" style="44" customWidth="1"/>
-    <col min="9989" max="9989" width="6.5703125" style="44" customWidth="1"/>
+    <col min="9988" max="9988" width="11.88671875" style="44" customWidth="1"/>
+    <col min="9989" max="9989" width="6.5546875" style="44" customWidth="1"/>
     <col min="9990" max="9990" width="8" style="44" customWidth="1"/>
     <col min="9991" max="9991" width="4" style="44" customWidth="1"/>
-    <col min="9992" max="9992" width="13.28515625" style="44" customWidth="1"/>
-    <col min="9993" max="9993" width="10.140625" style="44" customWidth="1"/>
-    <col min="9994" max="9994" width="2.28515625" style="44" customWidth="1"/>
-    <col min="9995" max="9995" width="13.42578125" style="44" customWidth="1"/>
+    <col min="9992" max="9992" width="13.33203125" style="44" customWidth="1"/>
+    <col min="9993" max="9993" width="10.109375" style="44" customWidth="1"/>
+    <col min="9994" max="9994" width="2.33203125" style="44" customWidth="1"/>
+    <col min="9995" max="9995" width="13.44140625" style="44" customWidth="1"/>
     <col min="9996" max="9996" width="12" style="44" customWidth="1"/>
-    <col min="9997" max="9997" width="12.5703125" style="44" customWidth="1"/>
-    <col min="9998" max="10240" width="9.140625" style="44"/>
-    <col min="10241" max="10241" width="8.5703125" style="44" customWidth="1"/>
-    <col min="10242" max="10242" width="5.140625" style="44" customWidth="1"/>
+    <col min="9997" max="9997" width="12.5546875" style="44" customWidth="1"/>
+    <col min="9998" max="10240" width="9.109375" style="44"/>
+    <col min="10241" max="10241" width="8.5546875" style="44" customWidth="1"/>
+    <col min="10242" max="10242" width="5.109375" style="44" customWidth="1"/>
     <col min="10243" max="10243" width="6" style="44" customWidth="1"/>
-    <col min="10244" max="10244" width="11.85546875" style="44" customWidth="1"/>
-    <col min="10245" max="10245" width="6.5703125" style="44" customWidth="1"/>
+    <col min="10244" max="10244" width="11.88671875" style="44" customWidth="1"/>
+    <col min="10245" max="10245" width="6.5546875" style="44" customWidth="1"/>
     <col min="10246" max="10246" width="8" style="44" customWidth="1"/>
     <col min="10247" max="10247" width="4" style="44" customWidth="1"/>
-    <col min="10248" max="10248" width="13.28515625" style="44" customWidth="1"/>
-    <col min="10249" max="10249" width="10.140625" style="44" customWidth="1"/>
-    <col min="10250" max="10250" width="2.28515625" style="44" customWidth="1"/>
-    <col min="10251" max="10251" width="13.42578125" style="44" customWidth="1"/>
+    <col min="10248" max="10248" width="13.33203125" style="44" customWidth="1"/>
+    <col min="10249" max="10249" width="10.109375" style="44" customWidth="1"/>
+    <col min="10250" max="10250" width="2.33203125" style="44" customWidth="1"/>
+    <col min="10251" max="10251" width="13.44140625" style="44" customWidth="1"/>
     <col min="10252" max="10252" width="12" style="44" customWidth="1"/>
-    <col min="10253" max="10253" width="12.5703125" style="44" customWidth="1"/>
-    <col min="10254" max="10496" width="9.140625" style="44"/>
-    <col min="10497" max="10497" width="8.5703125" style="44" customWidth="1"/>
-    <col min="10498" max="10498" width="5.140625" style="44" customWidth="1"/>
+    <col min="10253" max="10253" width="12.5546875" style="44" customWidth="1"/>
+    <col min="10254" max="10496" width="9.109375" style="44"/>
+    <col min="10497" max="10497" width="8.5546875" style="44" customWidth="1"/>
+    <col min="10498" max="10498" width="5.109375" style="44" customWidth="1"/>
     <col min="10499" max="10499" width="6" style="44" customWidth="1"/>
-    <col min="10500" max="10500" width="11.85546875" style="44" customWidth="1"/>
-    <col min="10501" max="10501" width="6.5703125" style="44" customWidth="1"/>
+    <col min="10500" max="10500" width="11.88671875" style="44" customWidth="1"/>
+    <col min="10501" max="10501" width="6.5546875" style="44" customWidth="1"/>
     <col min="10502" max="10502" width="8" style="44" customWidth="1"/>
     <col min="10503" max="10503" width="4" style="44" customWidth="1"/>
-    <col min="10504" max="10504" width="13.28515625" style="44" customWidth="1"/>
-    <col min="10505" max="10505" width="10.140625" style="44" customWidth="1"/>
-    <col min="10506" max="10506" width="2.28515625" style="44" customWidth="1"/>
-    <col min="10507" max="10507" width="13.42578125" style="44" customWidth="1"/>
+    <col min="10504" max="10504" width="13.33203125" style="44" customWidth="1"/>
+    <col min="10505" max="10505" width="10.109375" style="44" customWidth="1"/>
+    <col min="10506" max="10506" width="2.33203125" style="44" customWidth="1"/>
+    <col min="10507" max="10507" width="13.44140625" style="44" customWidth="1"/>
     <col min="10508" max="10508" width="12" style="44" customWidth="1"/>
-    <col min="10509" max="10509" width="12.5703125" style="44" customWidth="1"/>
-    <col min="10510" max="10752" width="9.140625" style="44"/>
-    <col min="10753" max="10753" width="8.5703125" style="44" customWidth="1"/>
-    <col min="10754" max="10754" width="5.140625" style="44" customWidth="1"/>
+    <col min="10509" max="10509" width="12.5546875" style="44" customWidth="1"/>
+    <col min="10510" max="10752" width="9.109375" style="44"/>
+    <col min="10753" max="10753" width="8.5546875" style="44" customWidth="1"/>
+    <col min="10754" max="10754" width="5.109375" style="44" customWidth="1"/>
     <col min="10755" max="10755" width="6" style="44" customWidth="1"/>
-    <col min="10756" max="10756" width="11.85546875" style="44" customWidth="1"/>
-    <col min="10757" max="10757" width="6.5703125" style="44" customWidth="1"/>
+    <col min="10756" max="10756" width="11.88671875" style="44" customWidth="1"/>
+    <col min="10757" max="10757" width="6.5546875" style="44" customWidth="1"/>
     <col min="10758" max="10758" width="8" style="44" customWidth="1"/>
     <col min="10759" max="10759" width="4" style="44" customWidth="1"/>
-    <col min="10760" max="10760" width="13.28515625" style="44" customWidth="1"/>
-    <col min="10761" max="10761" width="10.140625" style="44" customWidth="1"/>
-    <col min="10762" max="10762" width="2.28515625" style="44" customWidth="1"/>
-    <col min="10763" max="10763" width="13.42578125" style="44" customWidth="1"/>
+    <col min="10760" max="10760" width="13.33203125" style="44" customWidth="1"/>
+    <col min="10761" max="10761" width="10.109375" style="44" customWidth="1"/>
+    <col min="10762" max="10762" width="2.33203125" style="44" customWidth="1"/>
+    <col min="10763" max="10763" width="13.44140625" style="44" customWidth="1"/>
     <col min="10764" max="10764" width="12" style="44" customWidth="1"/>
-    <col min="10765" max="10765" width="12.5703125" style="44" customWidth="1"/>
-    <col min="10766" max="11008" width="9.140625" style="44"/>
-    <col min="11009" max="11009" width="8.5703125" style="44" customWidth="1"/>
-    <col min="11010" max="11010" width="5.140625" style="44" customWidth="1"/>
+    <col min="10765" max="10765" width="12.5546875" style="44" customWidth="1"/>
+    <col min="10766" max="11008" width="9.109375" style="44"/>
+    <col min="11009" max="11009" width="8.5546875" style="44" customWidth="1"/>
+    <col min="11010" max="11010" width="5.109375" style="44" customWidth="1"/>
     <col min="11011" max="11011" width="6" style="44" customWidth="1"/>
-    <col min="11012" max="11012" width="11.85546875" style="44" customWidth="1"/>
-    <col min="11013" max="11013" width="6.5703125" style="44" customWidth="1"/>
+    <col min="11012" max="11012" width="11.88671875" style="44" customWidth="1"/>
+    <col min="11013" max="11013" width="6.5546875" style="44" customWidth="1"/>
     <col min="11014" max="11014" width="8" style="44" customWidth="1"/>
     <col min="11015" max="11015" width="4" style="44" customWidth="1"/>
-    <col min="11016" max="11016" width="13.28515625" style="44" customWidth="1"/>
-    <col min="11017" max="11017" width="10.140625" style="44" customWidth="1"/>
-    <col min="11018" max="11018" width="2.28515625" style="44" customWidth="1"/>
-    <col min="11019" max="11019" width="13.42578125" style="44" customWidth="1"/>
+    <col min="11016" max="11016" width="13.33203125" style="44" customWidth="1"/>
+    <col min="11017" max="11017" width="10.109375" style="44" customWidth="1"/>
+    <col min="11018" max="11018" width="2.33203125" style="44" customWidth="1"/>
+    <col min="11019" max="11019" width="13.44140625" style="44" customWidth="1"/>
     <col min="11020" max="11020" width="12" style="44" customWidth="1"/>
-    <col min="11021" max="11021" width="12.5703125" style="44" customWidth="1"/>
-    <col min="11022" max="11264" width="9.140625" style="44"/>
-    <col min="11265" max="11265" width="8.5703125" style="44" customWidth="1"/>
-    <col min="11266" max="11266" width="5.140625" style="44" customWidth="1"/>
+    <col min="11021" max="11021" width="12.5546875" style="44" customWidth="1"/>
+    <col min="11022" max="11264" width="9.109375" style="44"/>
+    <col min="11265" max="11265" width="8.5546875" style="44" customWidth="1"/>
+    <col min="11266" max="11266" width="5.109375" style="44" customWidth="1"/>
     <col min="11267" max="11267" width="6" style="44" customWidth="1"/>
-    <col min="11268" max="11268" width="11.85546875" style="44" customWidth="1"/>
-    <col min="11269" max="11269" width="6.5703125" style="44" customWidth="1"/>
+    <col min="11268" max="11268" width="11.88671875" style="44" customWidth="1"/>
+    <col min="11269" max="11269" width="6.5546875" style="44" customWidth="1"/>
     <col min="11270" max="11270" width="8" style="44" customWidth="1"/>
     <col min="11271" max="11271" width="4" style="44" customWidth="1"/>
-    <col min="11272" max="11272" width="13.28515625" style="44" customWidth="1"/>
-    <col min="11273" max="11273" width="10.140625" style="44" customWidth="1"/>
-    <col min="11274" max="11274" width="2.28515625" style="44" customWidth="1"/>
-    <col min="11275" max="11275" width="13.42578125" style="44" customWidth="1"/>
+    <col min="11272" max="11272" width="13.33203125" style="44" customWidth="1"/>
+    <col min="11273" max="11273" width="10.109375" style="44" customWidth="1"/>
+    <col min="11274" max="11274" width="2.33203125" style="44" customWidth="1"/>
+    <col min="11275" max="11275" width="13.44140625" style="44" customWidth="1"/>
     <col min="11276" max="11276" width="12" style="44" customWidth="1"/>
-    <col min="11277" max="11277" width="12.5703125" style="44" customWidth="1"/>
-    <col min="11278" max="11520" width="9.140625" style="44"/>
-    <col min="11521" max="11521" width="8.5703125" style="44" customWidth="1"/>
-    <col min="11522" max="11522" width="5.140625" style="44" customWidth="1"/>
+    <col min="11277" max="11277" width="12.5546875" style="44" customWidth="1"/>
+    <col min="11278" max="11520" width="9.109375" style="44"/>
+    <col min="11521" max="11521" width="8.5546875" style="44" customWidth="1"/>
+    <col min="11522" max="11522" width="5.109375" style="44" customWidth="1"/>
     <col min="11523" max="11523" width="6" style="44" customWidth="1"/>
-    <col min="11524" max="11524" width="11.85546875" style="44" customWidth="1"/>
-    <col min="11525" max="11525" width="6.5703125" style="44" customWidth="1"/>
+    <col min="11524" max="11524" width="11.88671875" style="44" customWidth="1"/>
+    <col min="11525" max="11525" width="6.5546875" style="44" customWidth="1"/>
     <col min="11526" max="11526" width="8" style="44" customWidth="1"/>
     <col min="11527" max="11527" width="4" style="44" customWidth="1"/>
-    <col min="11528" max="11528" width="13.28515625" style="44" customWidth="1"/>
-    <col min="11529" max="11529" width="10.140625" style="44" customWidth="1"/>
-    <col min="11530" max="11530" width="2.28515625" style="44" customWidth="1"/>
-    <col min="11531" max="11531" width="13.42578125" style="44" customWidth="1"/>
+    <col min="11528" max="11528" width="13.33203125" style="44" customWidth="1"/>
+    <col min="11529" max="11529" width="10.109375" style="44" customWidth="1"/>
+    <col min="11530" max="11530" width="2.33203125" style="44" customWidth="1"/>
+    <col min="11531" max="11531" width="13.44140625" style="44" customWidth="1"/>
     <col min="11532" max="11532" width="12" style="44" customWidth="1"/>
-    <col min="11533" max="11533" width="12.5703125" style="44" customWidth="1"/>
-    <col min="11534" max="11776" width="9.140625" style="44"/>
-    <col min="11777" max="11777" width="8.5703125" style="44" customWidth="1"/>
-    <col min="11778" max="11778" width="5.140625" style="44" customWidth="1"/>
+    <col min="11533" max="11533" width="12.5546875" style="44" customWidth="1"/>
+    <col min="11534" max="11776" width="9.109375" style="44"/>
+    <col min="11777" max="11777" width="8.5546875" style="44" customWidth="1"/>
+    <col min="11778" max="11778" width="5.109375" style="44" customWidth="1"/>
     <col min="11779" max="11779" width="6" style="44" customWidth="1"/>
-    <col min="11780" max="11780" width="11.85546875" style="44" customWidth="1"/>
-    <col min="11781" max="11781" width="6.5703125" style="44" customWidth="1"/>
+    <col min="11780" max="11780" width="11.88671875" style="44" customWidth="1"/>
+    <col min="11781" max="11781" width="6.5546875" style="44" customWidth="1"/>
     <col min="11782" max="11782" width="8" style="44" customWidth="1"/>
     <col min="11783" max="11783" width="4" style="44" customWidth="1"/>
-    <col min="11784" max="11784" width="13.28515625" style="44" customWidth="1"/>
-    <col min="11785" max="11785" width="10.140625" style="44" customWidth="1"/>
-    <col min="11786" max="11786" width="2.28515625" style="44" customWidth="1"/>
-    <col min="11787" max="11787" width="13.42578125" style="44" customWidth="1"/>
+    <col min="11784" max="11784" width="13.33203125" style="44" customWidth="1"/>
+    <col min="11785" max="11785" width="10.109375" style="44" customWidth="1"/>
+    <col min="11786" max="11786" width="2.33203125" style="44" customWidth="1"/>
+    <col min="11787" max="11787" width="13.44140625" style="44" customWidth="1"/>
     <col min="11788" max="11788" width="12" style="44" customWidth="1"/>
-    <col min="11789" max="11789" width="12.5703125" style="44" customWidth="1"/>
-    <col min="11790" max="12032" width="9.140625" style="44"/>
-    <col min="12033" max="12033" width="8.5703125" style="44" customWidth="1"/>
-    <col min="12034" max="12034" width="5.140625" style="44" customWidth="1"/>
+    <col min="11789" max="11789" width="12.5546875" style="44" customWidth="1"/>
+    <col min="11790" max="12032" width="9.109375" style="44"/>
+    <col min="12033" max="12033" width="8.5546875" style="44" customWidth="1"/>
+    <col min="12034" max="12034" width="5.109375" style="44" customWidth="1"/>
     <col min="12035" max="12035" width="6" style="44" customWidth="1"/>
-    <col min="12036" max="12036" width="11.85546875" style="44" customWidth="1"/>
-    <col min="12037" max="12037" width="6.5703125" style="44" customWidth="1"/>
+    <col min="12036" max="12036" width="11.88671875" style="44" customWidth="1"/>
+    <col min="12037" max="12037" width="6.5546875" style="44" customWidth="1"/>
     <col min="12038" max="12038" width="8" style="44" customWidth="1"/>
     <col min="12039" max="12039" width="4" style="44" customWidth="1"/>
-    <col min="12040" max="12040" width="13.28515625" style="44" customWidth="1"/>
-    <col min="12041" max="12041" width="10.140625" style="44" customWidth="1"/>
-    <col min="12042" max="12042" width="2.28515625" style="44" customWidth="1"/>
-    <col min="12043" max="12043" width="13.42578125" style="44" customWidth="1"/>
+    <col min="12040" max="12040" width="13.33203125" style="44" customWidth="1"/>
+    <col min="12041" max="12041" width="10.109375" style="44" customWidth="1"/>
+    <col min="12042" max="12042" width="2.33203125" style="44" customWidth="1"/>
+    <col min="12043" max="12043" width="13.44140625" style="44" customWidth="1"/>
     <col min="12044" max="12044" width="12" style="44" customWidth="1"/>
-    <col min="12045" max="12045" width="12.5703125" style="44" customWidth="1"/>
-    <col min="12046" max="12288" width="9.140625" style="44"/>
-    <col min="12289" max="12289" width="8.5703125" style="44" customWidth="1"/>
-    <col min="12290" max="12290" width="5.140625" style="44" customWidth="1"/>
+    <col min="12045" max="12045" width="12.5546875" style="44" customWidth="1"/>
+    <col min="12046" max="12288" width="9.109375" style="44"/>
+    <col min="12289" max="12289" width="8.5546875" style="44" customWidth="1"/>
+    <col min="12290" max="12290" width="5.109375" style="44" customWidth="1"/>
     <col min="12291" max="12291" width="6" style="44" customWidth="1"/>
-    <col min="12292" max="12292" width="11.85546875" style="44" customWidth="1"/>
-    <col min="12293" max="12293" width="6.5703125" style="44" customWidth="1"/>
+    <col min="12292" max="12292" width="11.88671875" style="44" customWidth="1"/>
+    <col min="12293" max="12293" width="6.5546875" style="44" customWidth="1"/>
     <col min="12294" max="12294" width="8" style="44" customWidth="1"/>
     <col min="12295" max="12295" width="4" style="44" customWidth="1"/>
-    <col min="12296" max="12296" width="13.28515625" style="44" customWidth="1"/>
-    <col min="12297" max="12297" width="10.140625" style="44" customWidth="1"/>
-    <col min="12298" max="12298" width="2.28515625" style="44" customWidth="1"/>
-    <col min="12299" max="12299" width="13.42578125" style="44" customWidth="1"/>
+    <col min="12296" max="12296" width="13.33203125" style="44" customWidth="1"/>
+    <col min="12297" max="12297" width="10.109375" style="44" customWidth="1"/>
+    <col min="12298" max="12298" width="2.33203125" style="44" customWidth="1"/>
+    <col min="12299" max="12299" width="13.44140625" style="44" customWidth="1"/>
     <col min="12300" max="12300" width="12" style="44" customWidth="1"/>
-    <col min="12301" max="12301" width="12.5703125" style="44" customWidth="1"/>
-    <col min="12302" max="12544" width="9.140625" style="44"/>
-    <col min="12545" max="12545" width="8.5703125" style="44" customWidth="1"/>
-    <col min="12546" max="12546" width="5.140625" style="44" customWidth="1"/>
+    <col min="12301" max="12301" width="12.5546875" style="44" customWidth="1"/>
+    <col min="12302" max="12544" width="9.109375" style="44"/>
+    <col min="12545" max="12545" width="8.5546875" style="44" customWidth="1"/>
+    <col min="12546" max="12546" width="5.109375" style="44" customWidth="1"/>
     <col min="12547" max="12547" width="6" style="44" customWidth="1"/>
-    <col min="12548" max="12548" width="11.85546875" style="44" customWidth="1"/>
-    <col min="12549" max="12549" width="6.5703125" style="44" customWidth="1"/>
+    <col min="12548" max="12548" width="11.88671875" style="44" customWidth="1"/>
+    <col min="12549" max="12549" width="6.5546875" style="44" customWidth="1"/>
     <col min="12550" max="12550" width="8" style="44" customWidth="1"/>
     <col min="12551" max="12551" width="4" style="44" customWidth="1"/>
-    <col min="12552" max="12552" width="13.28515625" style="44" customWidth="1"/>
-    <col min="12553" max="12553" width="10.140625" style="44" customWidth="1"/>
-    <col min="12554" max="12554" width="2.28515625" style="44" customWidth="1"/>
-    <col min="12555" max="12555" width="13.42578125" style="44" customWidth="1"/>
+    <col min="12552" max="12552" width="13.33203125" style="44" customWidth="1"/>
+    <col min="12553" max="12553" width="10.109375" style="44" customWidth="1"/>
+    <col min="12554" max="12554" width="2.33203125" style="44" customWidth="1"/>
+    <col min="12555" max="12555" width="13.44140625" style="44" customWidth="1"/>
     <col min="12556" max="12556" width="12" style="44" customWidth="1"/>
-    <col min="12557" max="12557" width="12.5703125" style="44" customWidth="1"/>
-    <col min="12558" max="12800" width="9.140625" style="44"/>
-    <col min="12801" max="12801" width="8.5703125" style="44" customWidth="1"/>
-    <col min="12802" max="12802" width="5.140625" style="44" customWidth="1"/>
+    <col min="12557" max="12557" width="12.5546875" style="44" customWidth="1"/>
+    <col min="12558" max="12800" width="9.109375" style="44"/>
+    <col min="12801" max="12801" width="8.5546875" style="44" customWidth="1"/>
+    <col min="12802" max="12802" width="5.109375" style="44" customWidth="1"/>
     <col min="12803" max="12803" width="6" style="44" customWidth="1"/>
-    <col min="12804" max="12804" width="11.85546875" style="44" customWidth="1"/>
-    <col min="12805" max="12805" width="6.5703125" style="44" customWidth="1"/>
+    <col min="12804" max="12804" width="11.88671875" style="44" customWidth="1"/>
+    <col min="12805" max="12805" width="6.5546875" style="44" customWidth="1"/>
     <col min="12806" max="12806" width="8" style="44" customWidth="1"/>
     <col min="12807" max="12807" width="4" style="44" customWidth="1"/>
-    <col min="12808" max="12808" width="13.28515625" style="44" customWidth="1"/>
-    <col min="12809" max="12809" width="10.140625" style="44" customWidth="1"/>
-    <col min="12810" max="12810" width="2.28515625" style="44" customWidth="1"/>
-    <col min="12811" max="12811" width="13.42578125" style="44" customWidth="1"/>
+    <col min="12808" max="12808" width="13.33203125" style="44" customWidth="1"/>
+    <col min="12809" max="12809" width="10.109375" style="44" customWidth="1"/>
+    <col min="12810" max="12810" width="2.33203125" style="44" customWidth="1"/>
+    <col min="12811" max="12811" width="13.44140625" style="44" customWidth="1"/>
     <col min="12812" max="12812" width="12" style="44" customWidth="1"/>
-    <col min="12813" max="12813" width="12.5703125" style="44" customWidth="1"/>
-    <col min="12814" max="13056" width="9.140625" style="44"/>
-    <col min="13057" max="13057" width="8.5703125" style="44" customWidth="1"/>
-    <col min="13058" max="13058" width="5.140625" style="44" customWidth="1"/>
+    <col min="12813" max="12813" width="12.5546875" style="44" customWidth="1"/>
+    <col min="12814" max="13056" width="9.109375" style="44"/>
+    <col min="13057" max="13057" width="8.5546875" style="44" customWidth="1"/>
+    <col min="13058" max="13058" width="5.109375" style="44" customWidth="1"/>
     <col min="13059" max="13059" width="6" style="44" customWidth="1"/>
-    <col min="13060" max="13060" width="11.85546875" style="44" customWidth="1"/>
-    <col min="13061" max="13061" width="6.5703125" style="44" customWidth="1"/>
+    <col min="13060" max="13060" width="11.88671875" style="44" customWidth="1"/>
+    <col min="13061" max="13061" width="6.5546875" style="44" customWidth="1"/>
     <col min="13062" max="13062" width="8" style="44" customWidth="1"/>
     <col min="13063" max="13063" width="4" style="44" customWidth="1"/>
-    <col min="13064" max="13064" width="13.28515625" style="44" customWidth="1"/>
-    <col min="13065" max="13065" width="10.140625" style="44" customWidth="1"/>
-    <col min="13066" max="13066" width="2.28515625" style="44" customWidth="1"/>
-    <col min="13067" max="13067" width="13.42578125" style="44" customWidth="1"/>
+    <col min="13064" max="13064" width="13.33203125" style="44" customWidth="1"/>
+    <col min="13065" max="13065" width="10.109375" style="44" customWidth="1"/>
+    <col min="13066" max="13066" width="2.33203125" style="44" customWidth="1"/>
+    <col min="13067" max="13067" width="13.44140625" style="44" customWidth="1"/>
     <col min="13068" max="13068" width="12" style="44" customWidth="1"/>
-    <col min="13069" max="13069" width="12.5703125" style="44" customWidth="1"/>
-    <col min="13070" max="13312" width="9.140625" style="44"/>
-    <col min="13313" max="13313" width="8.5703125" style="44" customWidth="1"/>
-    <col min="13314" max="13314" width="5.140625" style="44" customWidth="1"/>
+    <col min="13069" max="13069" width="12.5546875" style="44" customWidth="1"/>
+    <col min="13070" max="13312" width="9.109375" style="44"/>
+    <col min="13313" max="13313" width="8.5546875" style="44" customWidth="1"/>
+    <col min="13314" max="13314" width="5.109375" style="44" customWidth="1"/>
     <col min="13315" max="13315" width="6" style="44" customWidth="1"/>
-    <col min="13316" max="13316" width="11.85546875" style="44" customWidth="1"/>
-    <col min="13317" max="13317" width="6.5703125" style="44" customWidth="1"/>
+    <col min="13316" max="13316" width="11.88671875" style="44" customWidth="1"/>
+    <col min="13317" max="13317" width="6.5546875" style="44" customWidth="1"/>
     <col min="13318" max="13318" width="8" style="44" customWidth="1"/>
     <col min="13319" max="13319" width="4" style="44" customWidth="1"/>
-    <col min="13320" max="13320" width="13.28515625" style="44" customWidth="1"/>
-    <col min="13321" max="13321" width="10.140625" style="44" customWidth="1"/>
-    <col min="13322" max="13322" width="2.28515625" style="44" customWidth="1"/>
-    <col min="13323" max="13323" width="13.42578125" style="44" customWidth="1"/>
+    <col min="13320" max="13320" width="13.33203125" style="44" customWidth="1"/>
+    <col min="13321" max="13321" width="10.109375" style="44" customWidth="1"/>
+    <col min="13322" max="13322" width="2.33203125" style="44" customWidth="1"/>
+    <col min="13323" max="13323" width="13.44140625" style="44" customWidth="1"/>
     <col min="13324" max="13324" width="12" style="44" customWidth="1"/>
-    <col min="13325" max="13325" width="12.5703125" style="44" customWidth="1"/>
-    <col min="13326" max="13568" width="9.140625" style="44"/>
-    <col min="13569" max="13569" width="8.5703125" style="44" customWidth="1"/>
-    <col min="13570" max="13570" width="5.140625" style="44" customWidth="1"/>
+    <col min="13325" max="13325" width="12.5546875" style="44" customWidth="1"/>
+    <col min="13326" max="13568" width="9.109375" style="44"/>
+    <col min="13569" max="13569" width="8.5546875" style="44" customWidth="1"/>
+    <col min="13570" max="13570" width="5.109375" style="44" customWidth="1"/>
     <col min="13571" max="13571" width="6" style="44" customWidth="1"/>
-    <col min="13572" max="13572" width="11.85546875" style="44" customWidth="1"/>
-    <col min="13573" max="13573" width="6.5703125" style="44" customWidth="1"/>
+    <col min="13572" max="13572" width="11.88671875" style="44" customWidth="1"/>
+    <col min="13573" max="13573" width="6.5546875" style="44" customWidth="1"/>
     <col min="13574" max="13574" width="8" style="44" customWidth="1"/>
     <col min="13575" max="13575" width="4" style="44" customWidth="1"/>
-    <col min="13576" max="13576" width="13.28515625" style="44" customWidth="1"/>
-    <col min="13577" max="13577" width="10.140625" style="44" customWidth="1"/>
-    <col min="13578" max="13578" width="2.28515625" style="44" customWidth="1"/>
-    <col min="13579" max="13579" width="13.42578125" style="44" customWidth="1"/>
+    <col min="13576" max="13576" width="13.33203125" style="44" customWidth="1"/>
+    <col min="13577" max="13577" width="10.109375" style="44" customWidth="1"/>
+    <col min="13578" max="13578" width="2.33203125" style="44" customWidth="1"/>
+    <col min="13579" max="13579" width="13.44140625" style="44" customWidth="1"/>
     <col min="13580" max="13580" width="12" style="44" customWidth="1"/>
-    <col min="13581" max="13581" width="12.5703125" style="44" customWidth="1"/>
-    <col min="13582" max="13824" width="9.140625" style="44"/>
-    <col min="13825" max="13825" width="8.5703125" style="44" customWidth="1"/>
-    <col min="13826" max="13826" width="5.140625" style="44" customWidth="1"/>
+    <col min="13581" max="13581" width="12.5546875" style="44" customWidth="1"/>
+    <col min="13582" max="13824" width="9.109375" style="44"/>
+    <col min="13825" max="13825" width="8.5546875" style="44" customWidth="1"/>
+    <col min="13826" max="13826" width="5.109375" style="44" customWidth="1"/>
     <col min="13827" max="13827" width="6" style="44" customWidth="1"/>
-    <col min="13828" max="13828" width="11.85546875" style="44" customWidth="1"/>
-    <col min="13829" max="13829" width="6.5703125" style="44" customWidth="1"/>
+    <col min="13828" max="13828" width="11.88671875" style="44" customWidth="1"/>
+    <col min="13829" max="13829" width="6.5546875" style="44" customWidth="1"/>
     <col min="13830" max="13830" width="8" style="44" customWidth="1"/>
     <col min="13831" max="13831" width="4" style="44" customWidth="1"/>
-    <col min="13832" max="13832" width="13.28515625" style="44" customWidth="1"/>
-    <col min="13833" max="13833" width="10.140625" style="44" customWidth="1"/>
-    <col min="13834" max="13834" width="2.28515625" style="44" customWidth="1"/>
-    <col min="13835" max="13835" width="13.42578125" style="44" customWidth="1"/>
+    <col min="13832" max="13832" width="13.33203125" style="44" customWidth="1"/>
+    <col min="13833" max="13833" width="10.109375" style="44" customWidth="1"/>
+    <col min="13834" max="13834" width="2.33203125" style="44" customWidth="1"/>
+    <col min="13835" max="13835" width="13.44140625" style="44" customWidth="1"/>
     <col min="13836" max="13836" width="12" style="44" customWidth="1"/>
-    <col min="13837" max="13837" width="12.5703125" style="44" customWidth="1"/>
-    <col min="13838" max="14080" width="9.140625" style="44"/>
-    <col min="14081" max="14081" width="8.5703125" style="44" customWidth="1"/>
-    <col min="14082" max="14082" width="5.140625" style="44" customWidth="1"/>
+    <col min="13837" max="13837" width="12.5546875" style="44" customWidth="1"/>
+    <col min="13838" max="14080" width="9.109375" style="44"/>
+    <col min="14081" max="14081" width="8.5546875" style="44" customWidth="1"/>
+    <col min="14082" max="14082" width="5.109375" style="44" customWidth="1"/>
     <col min="14083" max="14083" width="6" style="44" customWidth="1"/>
-    <col min="14084" max="14084" width="11.85546875" style="44" customWidth="1"/>
-    <col min="14085" max="14085" width="6.5703125" style="44" customWidth="1"/>
+    <col min="14084" max="14084" width="11.88671875" style="44" customWidth="1"/>
+    <col min="14085" max="14085" width="6.5546875" style="44" customWidth="1"/>
     <col min="14086" max="14086" width="8" style="44" customWidth="1"/>
     <col min="14087" max="14087" width="4" style="44" customWidth="1"/>
-    <col min="14088" max="14088" width="13.28515625" style="44" customWidth="1"/>
-    <col min="14089" max="14089" width="10.140625" style="44" customWidth="1"/>
-    <col min="14090" max="14090" width="2.28515625" style="44" customWidth="1"/>
-    <col min="14091" max="14091" width="13.42578125" style="44" customWidth="1"/>
+    <col min="14088" max="14088" width="13.33203125" style="44" customWidth="1"/>
+    <col min="14089" max="14089" width="10.109375" style="44" customWidth="1"/>
+    <col min="14090" max="14090" width="2.33203125" style="44" customWidth="1"/>
+    <col min="14091" max="14091" width="13.44140625" style="44" customWidth="1"/>
     <col min="14092" max="14092" width="12" style="44" customWidth="1"/>
-    <col min="14093" max="14093" width="12.5703125" style="44" customWidth="1"/>
-    <col min="14094" max="14336" width="9.140625" style="44"/>
-    <col min="14337" max="14337" width="8.5703125" style="44" customWidth="1"/>
-    <col min="14338" max="14338" width="5.140625" style="44" customWidth="1"/>
+    <col min="14093" max="14093" width="12.5546875" style="44" customWidth="1"/>
+    <col min="14094" max="14336" width="9.109375" style="44"/>
+    <col min="14337" max="14337" width="8.5546875" style="44" customWidth="1"/>
+    <col min="14338" max="14338" width="5.109375" style="44" customWidth="1"/>
     <col min="14339" max="14339" width="6" style="44" customWidth="1"/>
-    <col min="14340" max="14340" width="11.85546875" style="44" customWidth="1"/>
-    <col min="14341" max="14341" width="6.5703125" style="44" customWidth="1"/>
+    <col min="14340" max="14340" width="11.88671875" style="44" customWidth="1"/>
+    <col min="14341" max="14341" width="6.5546875" style="44" customWidth="1"/>
     <col min="14342" max="14342" width="8" style="44" customWidth="1"/>
     <col min="14343" max="14343" width="4" style="44" customWidth="1"/>
-    <col min="14344" max="14344" width="13.28515625" style="44" customWidth="1"/>
-    <col min="14345" max="14345" width="10.140625" style="44" customWidth="1"/>
-    <col min="14346" max="14346" width="2.28515625" style="44" customWidth="1"/>
-    <col min="14347" max="14347" width="13.42578125" style="44" customWidth="1"/>
+    <col min="14344" max="14344" width="13.33203125" style="44" customWidth="1"/>
+    <col min="14345" max="14345" width="10.109375" style="44" customWidth="1"/>
+    <col min="14346" max="14346" width="2.33203125" style="44" customWidth="1"/>
+    <col min="14347" max="14347" width="13.44140625" style="44" customWidth="1"/>
     <col min="14348" max="14348" width="12" style="44" customWidth="1"/>
-    <col min="14349" max="14349" width="12.5703125" style="44" customWidth="1"/>
-    <col min="14350" max="14592" width="9.140625" style="44"/>
-    <col min="14593" max="14593" width="8.5703125" style="44" customWidth="1"/>
-    <col min="14594" max="14594" width="5.140625" style="44" customWidth="1"/>
+    <col min="14349" max="14349" width="12.5546875" style="44" customWidth="1"/>
+    <col min="14350" max="14592" width="9.109375" style="44"/>
+    <col min="14593" max="14593" width="8.5546875" style="44" customWidth="1"/>
+    <col min="14594" max="14594" width="5.109375" style="44" customWidth="1"/>
     <col min="14595" max="14595" width="6" style="44" customWidth="1"/>
-    <col min="14596" max="14596" width="11.85546875" style="44" customWidth="1"/>
-    <col min="14597" max="14597" width="6.5703125" style="44" customWidth="1"/>
+    <col min="14596" max="14596" width="11.88671875" style="44" customWidth="1"/>
+    <col min="14597" max="14597" width="6.5546875" style="44" customWidth="1"/>
     <col min="14598" max="14598" width="8" style="44" customWidth="1"/>
     <col min="14599" max="14599" width="4" style="44" customWidth="1"/>
-    <col min="14600" max="14600" width="13.28515625" style="44" customWidth="1"/>
-    <col min="14601" max="14601" width="10.140625" style="44" customWidth="1"/>
-    <col min="14602" max="14602" width="2.28515625" style="44" customWidth="1"/>
-    <col min="14603" max="14603" width="13.42578125" style="44" customWidth="1"/>
+    <col min="14600" max="14600" width="13.33203125" style="44" customWidth="1"/>
+    <col min="14601" max="14601" width="10.109375" style="44" customWidth="1"/>
+    <col min="14602" max="14602" width="2.33203125" style="44" customWidth="1"/>
+    <col min="14603" max="14603" width="13.44140625" style="44" customWidth="1"/>
     <col min="14604" max="14604" width="12" style="44" customWidth="1"/>
-    <col min="14605" max="14605" width="12.5703125" style="44" customWidth="1"/>
-    <col min="14606" max="14848" width="9.140625" style="44"/>
-    <col min="14849" max="14849" width="8.5703125" style="44" customWidth="1"/>
-    <col min="14850" max="14850" width="5.140625" style="44" customWidth="1"/>
+    <col min="14605" max="14605" width="12.5546875" style="44" customWidth="1"/>
+    <col min="14606" max="14848" width="9.109375" style="44"/>
+    <col min="14849" max="14849" width="8.5546875" style="44" customWidth="1"/>
+    <col min="14850" max="14850" width="5.109375" style="44" customWidth="1"/>
     <col min="14851" max="14851" width="6" style="44" customWidth="1"/>
-    <col min="14852" max="14852" width="11.85546875" style="44" customWidth="1"/>
-    <col min="14853" max="14853" width="6.5703125" style="44" customWidth="1"/>
+    <col min="14852" max="14852" width="11.88671875" style="44" customWidth="1"/>
+    <col min="14853" max="14853" width="6.5546875" style="44" customWidth="1"/>
     <col min="14854" max="14854" width="8" style="44" customWidth="1"/>
     <col min="14855" max="14855" width="4" style="44" customWidth="1"/>
-    <col min="14856" max="14856" width="13.28515625" style="44" customWidth="1"/>
-    <col min="14857" max="14857" width="10.140625" style="44" customWidth="1"/>
-    <col min="14858" max="14858" width="2.28515625" style="44" customWidth="1"/>
-    <col min="14859" max="14859" width="13.42578125" style="44" customWidth="1"/>
+    <col min="14856" max="14856" width="13.33203125" style="44" customWidth="1"/>
+    <col min="14857" max="14857" width="10.109375" style="44" customWidth="1"/>
+    <col min="14858" max="14858" width="2.33203125" style="44" customWidth="1"/>
+    <col min="14859" max="14859" width="13.44140625" style="44" customWidth="1"/>
     <col min="14860" max="14860" width="12" style="44" customWidth="1"/>
-    <col min="14861" max="14861" width="12.5703125" style="44" customWidth="1"/>
-    <col min="14862" max="15104" width="9.140625" style="44"/>
-    <col min="15105" max="15105" width="8.5703125" style="44" customWidth="1"/>
-    <col min="15106" max="15106" width="5.140625" style="44" customWidth="1"/>
+    <col min="14861" max="14861" width="12.5546875" style="44" customWidth="1"/>
+    <col min="14862" max="15104" width="9.109375" style="44"/>
+    <col min="15105" max="15105" width="8.5546875" style="44" customWidth="1"/>
+    <col min="15106" max="15106" width="5.109375" style="44" customWidth="1"/>
     <col min="15107" max="15107" width="6" style="44" customWidth="1"/>
-    <col min="15108" max="15108" width="11.85546875" style="44" customWidth="1"/>
-    <col min="15109" max="15109" width="6.5703125" style="44" customWidth="1"/>
+    <col min="15108" max="15108" width="11.88671875" style="44" customWidth="1"/>
+    <col min="15109" max="15109" width="6.5546875" style="44" customWidth="1"/>
     <col min="15110" max="15110" width="8" style="44" customWidth="1"/>
     <col min="15111" max="15111" width="4" style="44" customWidth="1"/>
-    <col min="15112" max="15112" width="13.28515625" style="44" customWidth="1"/>
-    <col min="15113" max="15113" width="10.140625" style="44" customWidth="1"/>
-    <col min="15114" max="15114" width="2.28515625" style="44" customWidth="1"/>
-    <col min="15115" max="15115" width="13.42578125" style="44" customWidth="1"/>
+    <col min="15112" max="15112" width="13.33203125" style="44" customWidth="1"/>
+    <col min="15113" max="15113" width="10.109375" style="44" customWidth="1"/>
+    <col min="15114" max="15114" width="2.33203125" style="44" customWidth="1"/>
+    <col min="15115" max="15115" width="13.44140625" style="44" customWidth="1"/>
     <col min="15116" max="15116" width="12" style="44" customWidth="1"/>
-    <col min="15117" max="15117" width="12.5703125" style="44" customWidth="1"/>
-    <col min="15118" max="15360" width="9.140625" style="44"/>
-    <col min="15361" max="15361" width="8.5703125" style="44" customWidth="1"/>
-    <col min="15362" max="15362" width="5.140625" style="44" customWidth="1"/>
+    <col min="15117" max="15117" width="12.5546875" style="44" customWidth="1"/>
+    <col min="15118" max="15360" width="9.109375" style="44"/>
+    <col min="15361" max="15361" width="8.5546875" style="44" customWidth="1"/>
+    <col min="15362" max="15362" width="5.109375" style="44" customWidth="1"/>
     <col min="15363" max="15363" width="6" style="44" customWidth="1"/>
-    <col min="15364" max="15364" width="11.85546875" style="44" customWidth="1"/>
-    <col min="15365" max="15365" width="6.5703125" style="44" customWidth="1"/>
+    <col min="15364" max="15364" width="11.88671875" style="44" customWidth="1"/>
+    <col min="15365" max="15365" width="6.5546875" style="44" customWidth="1"/>
     <col min="15366" max="15366" width="8" style="44" customWidth="1"/>
     <col min="15367" max="15367" width="4" style="44" customWidth="1"/>
-    <col min="15368" max="15368" width="13.28515625" style="44" customWidth="1"/>
-    <col min="15369" max="15369" width="10.140625" style="44" customWidth="1"/>
-    <col min="15370" max="15370" width="2.28515625" style="44" customWidth="1"/>
-    <col min="15371" max="15371" width="13.42578125" style="44" customWidth="1"/>
+    <col min="15368" max="15368" width="13.33203125" style="44" customWidth="1"/>
+    <col min="15369" max="15369" width="10.109375" style="44" customWidth="1"/>
+    <col min="15370" max="15370" width="2.33203125" style="44" customWidth="1"/>
+    <col min="15371" max="15371" width="13.44140625" style="44" customWidth="1"/>
     <col min="15372" max="15372" width="12" style="44" customWidth="1"/>
-    <col min="15373" max="15373" width="12.5703125" style="44" customWidth="1"/>
-    <col min="15374" max="15616" width="9.140625" style="44"/>
-    <col min="15617" max="15617" width="8.5703125" style="44" customWidth="1"/>
-    <col min="15618" max="15618" width="5.140625" style="44" customWidth="1"/>
+    <col min="15373" max="15373" width="12.5546875" style="44" customWidth="1"/>
+    <col min="15374" max="15616" width="9.109375" style="44"/>
+    <col min="15617" max="15617" width="8.5546875" style="44" customWidth="1"/>
+    <col min="15618" max="15618" width="5.109375" style="44" customWidth="1"/>
     <col min="15619" max="15619" width="6" style="44" customWidth="1"/>
-    <col min="15620" max="15620" width="11.85546875" style="44" customWidth="1"/>
-    <col min="15621" max="15621" width="6.5703125" style="44" customWidth="1"/>
+    <col min="15620" max="15620" width="11.88671875" style="44" customWidth="1"/>
+    <col min="15621" max="15621" width="6.5546875" style="44" customWidth="1"/>
     <col min="15622" max="15622" width="8" style="44" customWidth="1"/>
     <col min="15623" max="15623" width="4" style="44" customWidth="1"/>
-    <col min="15624" max="15624" width="13.28515625" style="44" customWidth="1"/>
-    <col min="15625" max="15625" width="10.140625" style="44" customWidth="1"/>
-    <col min="15626" max="15626" width="2.28515625" style="44" customWidth="1"/>
-    <col min="15627" max="15627" width="13.42578125" style="44" customWidth="1"/>
+    <col min="15624" max="15624" width="13.33203125" style="44" customWidth="1"/>
+    <col min="15625" max="15625" width="10.109375" style="44" customWidth="1"/>
+    <col min="15626" max="15626" width="2.33203125" style="44" customWidth="1"/>
+    <col min="15627" max="15627" width="13.44140625" style="44" customWidth="1"/>
     <col min="15628" max="15628" width="12" style="44" customWidth="1"/>
-    <col min="15629" max="15629" width="12.5703125" style="44" customWidth="1"/>
-    <col min="15630" max="15872" width="9.140625" style="44"/>
-    <col min="15873" max="15873" width="8.5703125" style="44" customWidth="1"/>
-    <col min="15874" max="15874" width="5.140625" style="44" customWidth="1"/>
+    <col min="15629" max="15629" width="12.5546875" style="44" customWidth="1"/>
+    <col min="15630" max="15872" width="9.109375" style="44"/>
+    <col min="15873" max="15873" width="8.5546875" style="44" customWidth="1"/>
+    <col min="15874" max="15874" width="5.109375" style="44" customWidth="1"/>
     <col min="15875" max="15875" width="6" style="44" customWidth="1"/>
-    <col min="15876" max="15876" width="11.85546875" style="44" customWidth="1"/>
-    <col min="15877" max="15877" width="6.5703125" style="44" customWidth="1"/>
+    <col min="15876" max="15876" width="11.88671875" style="44" customWidth="1"/>
+    <col min="15877" max="15877" width="6.5546875" style="44" customWidth="1"/>
     <col min="15878" max="15878" width="8" style="44" customWidth="1"/>
     <col min="15879" max="15879" width="4" style="44" customWidth="1"/>
-    <col min="15880" max="15880" width="13.28515625" style="44" customWidth="1"/>
-    <col min="15881" max="15881" width="10.140625" style="44" customWidth="1"/>
-    <col min="15882" max="15882" width="2.28515625" style="44" customWidth="1"/>
-    <col min="15883" max="15883" width="13.42578125" style="44" customWidth="1"/>
+    <col min="15880" max="15880" width="13.33203125" style="44" customWidth="1"/>
+    <col min="15881" max="15881" width="10.109375" style="44" customWidth="1"/>
+    <col min="15882" max="15882" width="2.33203125" style="44" customWidth="1"/>
+    <col min="15883" max="15883" width="13.44140625" style="44" customWidth="1"/>
     <col min="15884" max="15884" width="12" style="44" customWidth="1"/>
-    <col min="15885" max="15885" width="12.5703125" style="44" customWidth="1"/>
-    <col min="15886" max="16128" width="9.140625" style="44"/>
-    <col min="16129" max="16129" width="8.5703125" style="44" customWidth="1"/>
-    <col min="16130" max="16130" width="5.140625" style="44" customWidth="1"/>
+    <col min="15885" max="15885" width="12.5546875" style="44" customWidth="1"/>
+    <col min="15886" max="16128" width="9.109375" style="44"/>
+    <col min="16129" max="16129" width="8.5546875" style="44" customWidth="1"/>
+    <col min="16130" max="16130" width="5.109375" style="44" customWidth="1"/>
     <col min="16131" max="16131" width="6" style="44" customWidth="1"/>
-    <col min="16132" max="16132" width="11.85546875" style="44" customWidth="1"/>
-    <col min="16133" max="16133" width="6.5703125" style="44" customWidth="1"/>
+    <col min="16132" max="16132" width="11.88671875" style="44" customWidth="1"/>
+    <col min="16133" max="16133" width="6.5546875" style="44" customWidth="1"/>
     <col min="16134" max="16134" width="8" style="44" customWidth="1"/>
     <col min="16135" max="16135" width="4" style="44" customWidth="1"/>
-    <col min="16136" max="16136" width="13.28515625" style="44" customWidth="1"/>
-    <col min="16137" max="16137" width="10.140625" style="44" customWidth="1"/>
-    <col min="16138" max="16138" width="2.28515625" style="44" customWidth="1"/>
-    <col min="16139" max="16139" width="13.42578125" style="44" customWidth="1"/>
+    <col min="16136" max="16136" width="13.33203125" style="44" customWidth="1"/>
+    <col min="16137" max="16137" width="10.109375" style="44" customWidth="1"/>
+    <col min="16138" max="16138" width="2.33203125" style="44" customWidth="1"/>
+    <col min="16139" max="16139" width="13.44140625" style="44" customWidth="1"/>
     <col min="16140" max="16140" width="12" style="44" customWidth="1"/>
-    <col min="16141" max="16141" width="12.5703125" style="44" customWidth="1"/>
-    <col min="16142" max="16384" width="9.140625" style="44"/>
+    <col min="16141" max="16141" width="12.5546875" style="44" customWidth="1"/>
+    <col min="16142" max="16384" width="9.109375" style="44"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -2560,10 +2560,10 @@
       <c r="I1" s="1"/>
       <c r="J1" s="1"/>
       <c r="K1" s="1"/>
-      <c r="L1" s="139" t="s">
+      <c r="L1" s="122" t="s">
         <v>33</v>
       </c>
-      <c r="M1" s="139"/>
+      <c r="M1" s="122"/>
     </row>
     <row r="2" spans="1:13" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1"/>
@@ -2577,529 +2577,529 @@
       <c r="I2" s="1"/>
       <c r="J2" s="1"/>
       <c r="K2" s="1"/>
-      <c r="L2" s="152"/>
-      <c r="M2" s="152"/>
-    </row>
-    <row r="3" spans="1:13" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="140" t="s">
+      <c r="L2" s="135"/>
+      <c r="M2" s="135"/>
+    </row>
+    <row r="3" spans="1:13" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="123" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="141"/>
-      <c r="C3" s="141"/>
-      <c r="D3" s="141"/>
-      <c r="E3" s="141"/>
-      <c r="F3" s="141"/>
-      <c r="G3" s="141"/>
-      <c r="H3" s="141"/>
-      <c r="I3" s="141"/>
-      <c r="J3" s="142"/>
-      <c r="K3" s="143" t="s">
+      <c r="B3" s="124"/>
+      <c r="C3" s="124"/>
+      <c r="D3" s="124"/>
+      <c r="E3" s="124"/>
+      <c r="F3" s="124"/>
+      <c r="G3" s="124"/>
+      <c r="H3" s="124"/>
+      <c r="I3" s="124"/>
+      <c r="J3" s="125"/>
+      <c r="K3" s="126" t="s">
         <v>34</v>
       </c>
-      <c r="L3" s="144"/>
-      <c r="M3" s="145"/>
-    </row>
-    <row r="4" spans="1:13" ht="15" x14ac:dyDescent="0.25">
-      <c r="A4" s="146" t="s">
+      <c r="L3" s="127"/>
+      <c r="M3" s="128"/>
+    </row>
+    <row r="4" spans="1:13" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A4" s="129" t="s">
         <v>31</v>
       </c>
-      <c r="B4" s="147"/>
-      <c r="C4" s="147"/>
-      <c r="D4" s="147"/>
-      <c r="E4" s="147"/>
-      <c r="F4" s="147"/>
-      <c r="G4" s="147"/>
-      <c r="H4" s="147"/>
-      <c r="I4" s="147"/>
-      <c r="J4" s="148"/>
-      <c r="K4" s="149" t="s">
+      <c r="B4" s="130"/>
+      <c r="C4" s="130"/>
+      <c r="D4" s="130"/>
+      <c r="E4" s="130"/>
+      <c r="F4" s="130"/>
+      <c r="G4" s="130"/>
+      <c r="H4" s="130"/>
+      <c r="I4" s="130"/>
+      <c r="J4" s="131"/>
+      <c r="K4" s="132" t="s">
         <v>35</v>
       </c>
-      <c r="L4" s="150"/>
-      <c r="M4" s="151"/>
-    </row>
-    <row r="5" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="133" t="s">
+      <c r="L4" s="133"/>
+      <c r="M4" s="134"/>
+    </row>
+    <row r="5" spans="1:13" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="116" t="s">
         <v>1</v>
       </c>
-      <c r="B5" s="134"/>
-      <c r="C5" s="134"/>
-      <c r="D5" s="134"/>
-      <c r="E5" s="134"/>
-      <c r="F5" s="134"/>
-      <c r="G5" s="134"/>
-      <c r="H5" s="134"/>
-      <c r="I5" s="134"/>
-      <c r="J5" s="135"/>
-      <c r="K5" s="136" t="s">
+      <c r="B5" s="117"/>
+      <c r="C5" s="117"/>
+      <c r="D5" s="117"/>
+      <c r="E5" s="117"/>
+      <c r="F5" s="117"/>
+      <c r="G5" s="117"/>
+      <c r="H5" s="117"/>
+      <c r="I5" s="117"/>
+      <c r="J5" s="118"/>
+      <c r="K5" s="119" t="s">
         <v>36</v>
       </c>
-      <c r="L5" s="137"/>
-      <c r="M5" s="138"/>
-    </row>
-    <row r="6" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="165" t="s">
+      <c r="L5" s="120"/>
+      <c r="M5" s="121"/>
+    </row>
+    <row r="6" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="98" t="s">
         <v>2</v>
       </c>
-      <c r="B6" s="166"/>
-      <c r="C6" s="167"/>
-      <c r="D6" s="168" t="s">
+      <c r="B6" s="99"/>
+      <c r="C6" s="100"/>
+      <c r="D6" s="142" t="s">
         <v>37</v>
       </c>
-      <c r="E6" s="169"/>
-      <c r="F6" s="169"/>
-      <c r="G6" s="169"/>
-      <c r="H6" s="169"/>
-      <c r="I6" s="169"/>
-      <c r="J6" s="169"/>
-      <c r="K6" s="169"/>
-      <c r="L6" s="169"/>
-      <c r="M6" s="170"/>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A7" s="156"/>
-      <c r="B7" s="157"/>
-      <c r="C7" s="158"/>
-      <c r="D7" s="171"/>
-      <c r="E7" s="172"/>
-      <c r="F7" s="172"/>
-      <c r="G7" s="172"/>
-      <c r="H7" s="172"/>
-      <c r="I7" s="172"/>
-      <c r="J7" s="172"/>
-      <c r="K7" s="172"/>
-      <c r="L7" s="172"/>
-      <c r="M7" s="173"/>
-    </row>
-    <row r="8" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="153" t="s">
+      <c r="E6" s="143"/>
+      <c r="F6" s="143"/>
+      <c r="G6" s="143"/>
+      <c r="H6" s="143"/>
+      <c r="I6" s="143"/>
+      <c r="J6" s="143"/>
+      <c r="K6" s="143"/>
+      <c r="L6" s="143"/>
+      <c r="M6" s="144"/>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A7" s="136"/>
+      <c r="B7" s="137"/>
+      <c r="C7" s="138"/>
+      <c r="D7" s="145"/>
+      <c r="E7" s="146"/>
+      <c r="F7" s="146"/>
+      <c r="G7" s="146"/>
+      <c r="H7" s="146"/>
+      <c r="I7" s="146"/>
+      <c r="J7" s="146"/>
+      <c r="K7" s="146"/>
+      <c r="L7" s="146"/>
+      <c r="M7" s="147"/>
+    </row>
+    <row r="8" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="86" t="s">
         <v>3</v>
       </c>
-      <c r="B8" s="154"/>
-      <c r="C8" s="155"/>
-      <c r="D8" s="159"/>
-      <c r="E8" s="160"/>
-      <c r="F8" s="160"/>
-      <c r="G8" s="160"/>
-      <c r="H8" s="160"/>
-      <c r="I8" s="160"/>
-      <c r="J8" s="160"/>
-      <c r="K8" s="160"/>
-      <c r="L8" s="160"/>
-      <c r="M8" s="161"/>
-    </row>
-    <row r="9" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="156"/>
-      <c r="B9" s="157"/>
-      <c r="C9" s="158"/>
-      <c r="D9" s="162"/>
-      <c r="E9" s="163"/>
-      <c r="F9" s="163"/>
-      <c r="G9" s="163"/>
-      <c r="H9" s="163"/>
-      <c r="I9" s="163"/>
-      <c r="J9" s="163"/>
-      <c r="K9" s="163"/>
-      <c r="L9" s="163"/>
-      <c r="M9" s="164"/>
-    </row>
-    <row r="10" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="153" t="s">
+      <c r="B8" s="87"/>
+      <c r="C8" s="88"/>
+      <c r="D8" s="92"/>
+      <c r="E8" s="93"/>
+      <c r="F8" s="93"/>
+      <c r="G8" s="93"/>
+      <c r="H8" s="93"/>
+      <c r="I8" s="93"/>
+      <c r="J8" s="93"/>
+      <c r="K8" s="93"/>
+      <c r="L8" s="93"/>
+      <c r="M8" s="94"/>
+    </row>
+    <row r="9" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="136"/>
+      <c r="B9" s="137"/>
+      <c r="C9" s="138"/>
+      <c r="D9" s="139"/>
+      <c r="E9" s="140"/>
+      <c r="F9" s="140"/>
+      <c r="G9" s="140"/>
+      <c r="H9" s="140"/>
+      <c r="I9" s="140"/>
+      <c r="J9" s="140"/>
+      <c r="K9" s="140"/>
+      <c r="L9" s="140"/>
+      <c r="M9" s="141"/>
+    </row>
+    <row r="10" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="86" t="s">
         <v>4</v>
       </c>
-      <c r="B10" s="154"/>
-      <c r="C10" s="155"/>
-      <c r="D10" s="159"/>
-      <c r="E10" s="160"/>
-      <c r="F10" s="160"/>
-      <c r="G10" s="160"/>
-      <c r="H10" s="160"/>
-      <c r="I10" s="160"/>
-      <c r="J10" s="160"/>
-      <c r="K10" s="160"/>
-      <c r="L10" s="160"/>
-      <c r="M10" s="161"/>
-    </row>
-    <row r="11" spans="1:13" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="174"/>
-      <c r="B11" s="98"/>
-      <c r="C11" s="175"/>
-      <c r="D11" s="176"/>
-      <c r="E11" s="177"/>
-      <c r="F11" s="177"/>
-      <c r="G11" s="177"/>
-      <c r="H11" s="177"/>
-      <c r="I11" s="177"/>
-      <c r="J11" s="177"/>
-      <c r="K11" s="177"/>
-      <c r="L11" s="177"/>
-      <c r="M11" s="178"/>
-    </row>
-    <row r="12" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="165" t="s">
+      <c r="B10" s="87"/>
+      <c r="C10" s="88"/>
+      <c r="D10" s="92"/>
+      <c r="E10" s="93"/>
+      <c r="F10" s="93"/>
+      <c r="G10" s="93"/>
+      <c r="H10" s="93"/>
+      <c r="I10" s="93"/>
+      <c r="J10" s="93"/>
+      <c r="K10" s="93"/>
+      <c r="L10" s="93"/>
+      <c r="M10" s="94"/>
+    </row>
+    <row r="11" spans="1:13" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="89"/>
+      <c r="B11" s="90"/>
+      <c r="C11" s="91"/>
+      <c r="D11" s="95"/>
+      <c r="E11" s="96"/>
+      <c r="F11" s="96"/>
+      <c r="G11" s="96"/>
+      <c r="H11" s="96"/>
+      <c r="I11" s="96"/>
+      <c r="J11" s="96"/>
+      <c r="K11" s="96"/>
+      <c r="L11" s="96"/>
+      <c r="M11" s="97"/>
+    </row>
+    <row r="12" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="98" t="s">
         <v>5</v>
       </c>
-      <c r="B12" s="166"/>
-      <c r="C12" s="167"/>
-      <c r="D12" s="179" t="s">
+      <c r="B12" s="99"/>
+      <c r="C12" s="100"/>
+      <c r="D12" s="101" t="s">
         <v>6</v>
       </c>
-      <c r="E12" s="180"/>
-      <c r="F12" s="180"/>
-      <c r="G12" s="180"/>
-      <c r="H12" s="181"/>
-      <c r="I12" s="185" t="s">
+      <c r="E12" s="102"/>
+      <c r="F12" s="102"/>
+      <c r="G12" s="102"/>
+      <c r="H12" s="103"/>
+      <c r="I12" s="107" t="s">
         <v>7</v>
       </c>
-      <c r="J12" s="186"/>
-      <c r="K12" s="189" t="s">
+      <c r="J12" s="108"/>
+      <c r="K12" s="111" t="s">
         <v>38</v>
       </c>
-      <c r="L12" s="179" t="s">
+      <c r="L12" s="101" t="s">
         <v>8</v>
       </c>
-      <c r="M12" s="191"/>
-    </row>
-    <row r="13" spans="1:13" ht="18.600000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="174"/>
-      <c r="B13" s="98"/>
-      <c r="C13" s="175"/>
-      <c r="D13" s="182"/>
-      <c r="E13" s="183"/>
-      <c r="F13" s="183"/>
-      <c r="G13" s="183"/>
-      <c r="H13" s="184"/>
-      <c r="I13" s="187"/>
-      <c r="J13" s="188"/>
-      <c r="K13" s="190"/>
-      <c r="L13" s="97"/>
-      <c r="M13" s="99"/>
+      <c r="M12" s="113"/>
+    </row>
+    <row r="13" spans="1:13" ht="18.600000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="89"/>
+      <c r="B13" s="90"/>
+      <c r="C13" s="91"/>
+      <c r="D13" s="104"/>
+      <c r="E13" s="105"/>
+      <c r="F13" s="105"/>
+      <c r="G13" s="105"/>
+      <c r="H13" s="106"/>
+      <c r="I13" s="109"/>
+      <c r="J13" s="110"/>
+      <c r="K13" s="112"/>
+      <c r="L13" s="114"/>
+      <c r="M13" s="115"/>
     </row>
     <row r="14" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="127"/>
-      <c r="B14" s="128"/>
-      <c r="C14" s="129"/>
-      <c r="D14" s="130" t="s">
+      <c r="A14" s="79"/>
+      <c r="B14" s="80"/>
+      <c r="C14" s="81"/>
+      <c r="D14" s="82" t="s">
         <v>9</v>
       </c>
-      <c r="E14" s="128"/>
-      <c r="F14" s="128"/>
-      <c r="G14" s="128"/>
-      <c r="H14" s="129"/>
-      <c r="I14" s="130"/>
-      <c r="J14" s="129"/>
+      <c r="E14" s="80"/>
+      <c r="F14" s="80"/>
+      <c r="G14" s="80"/>
+      <c r="H14" s="81"/>
+      <c r="I14" s="82"/>
+      <c r="J14" s="81"/>
       <c r="K14" s="45"/>
-      <c r="L14" s="196"/>
-      <c r="M14" s="197"/>
+      <c r="L14" s="77"/>
+      <c r="M14" s="78"/>
     </row>
     <row r="15" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="127"/>
-      <c r="B15" s="128"/>
-      <c r="C15" s="129"/>
-      <c r="D15" s="131" t="s">
+      <c r="A15" s="79"/>
+      <c r="B15" s="80"/>
+      <c r="C15" s="81"/>
+      <c r="D15" s="148" t="s">
         <v>39</v>
       </c>
-      <c r="E15" s="103"/>
-      <c r="F15" s="103"/>
-      <c r="G15" s="103"/>
-      <c r="H15" s="132"/>
-      <c r="I15" s="130"/>
-      <c r="J15" s="129"/>
+      <c r="E15" s="149"/>
+      <c r="F15" s="149"/>
+      <c r="G15" s="149"/>
+      <c r="H15" s="150"/>
+      <c r="I15" s="82"/>
+      <c r="J15" s="81"/>
       <c r="K15" s="4"/>
-      <c r="L15" s="196"/>
-      <c r="M15" s="197"/>
+      <c r="L15" s="77"/>
+      <c r="M15" s="78"/>
     </row>
     <row r="16" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="127"/>
-      <c r="B16" s="128"/>
-      <c r="C16" s="129"/>
-      <c r="D16" s="131"/>
-      <c r="E16" s="103"/>
-      <c r="F16" s="103"/>
-      <c r="G16" s="103"/>
-      <c r="H16" s="132"/>
-      <c r="I16" s="130"/>
-      <c r="J16" s="129"/>
+      <c r="A16" s="79"/>
+      <c r="B16" s="80"/>
+      <c r="C16" s="81"/>
+      <c r="D16" s="148"/>
+      <c r="E16" s="149"/>
+      <c r="F16" s="149"/>
+      <c r="G16" s="149"/>
+      <c r="H16" s="150"/>
+      <c r="I16" s="82"/>
+      <c r="J16" s="81"/>
       <c r="K16" s="4"/>
-      <c r="L16" s="198" t="s">
+      <c r="L16" s="151" t="s">
         <v>54</v>
       </c>
-      <c r="M16" s="199"/>
+      <c r="M16" s="152"/>
     </row>
     <row r="17" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="127"/>
-      <c r="B17" s="128"/>
-      <c r="C17" s="129"/>
-      <c r="D17" s="131"/>
-      <c r="E17" s="103"/>
-      <c r="F17" s="103"/>
-      <c r="G17" s="103"/>
-      <c r="H17" s="132"/>
-      <c r="I17" s="130"/>
-      <c r="J17" s="129"/>
+      <c r="A17" s="79"/>
+      <c r="B17" s="80"/>
+      <c r="C17" s="81"/>
+      <c r="D17" s="148"/>
+      <c r="E17" s="149"/>
+      <c r="F17" s="149"/>
+      <c r="G17" s="149"/>
+      <c r="H17" s="150"/>
+      <c r="I17" s="82"/>
+      <c r="J17" s="81"/>
       <c r="K17" s="4"/>
-      <c r="L17" s="196"/>
-      <c r="M17" s="197"/>
+      <c r="L17" s="77"/>
+      <c r="M17" s="78"/>
     </row>
     <row r="18" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="127"/>
-      <c r="B18" s="128"/>
-      <c r="C18" s="129"/>
-      <c r="D18" s="131"/>
-      <c r="E18" s="103"/>
-      <c r="F18" s="103"/>
-      <c r="G18" s="103"/>
-      <c r="H18" s="132"/>
-      <c r="I18" s="130"/>
-      <c r="J18" s="129"/>
+      <c r="A18" s="79"/>
+      <c r="B18" s="80"/>
+      <c r="C18" s="81"/>
+      <c r="D18" s="148"/>
+      <c r="E18" s="149"/>
+      <c r="F18" s="149"/>
+      <c r="G18" s="149"/>
+      <c r="H18" s="150"/>
+      <c r="I18" s="82"/>
+      <c r="J18" s="81"/>
       <c r="K18" s="4"/>
-      <c r="L18" s="196"/>
-      <c r="M18" s="197"/>
+      <c r="L18" s="77"/>
+      <c r="M18" s="78"/>
     </row>
     <row r="19" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="127"/>
-      <c r="B19" s="128"/>
-      <c r="C19" s="129"/>
-      <c r="D19" s="131"/>
-      <c r="E19" s="103"/>
-      <c r="F19" s="103"/>
-      <c r="G19" s="103"/>
-      <c r="H19" s="132"/>
-      <c r="I19" s="130"/>
-      <c r="J19" s="129"/>
+      <c r="A19" s="79"/>
+      <c r="B19" s="80"/>
+      <c r="C19" s="81"/>
+      <c r="D19" s="148"/>
+      <c r="E19" s="149"/>
+      <c r="F19" s="149"/>
+      <c r="G19" s="149"/>
+      <c r="H19" s="150"/>
+      <c r="I19" s="82"/>
+      <c r="J19" s="81"/>
       <c r="K19" s="4"/>
-      <c r="L19" s="196"/>
-      <c r="M19" s="197"/>
+      <c r="L19" s="77"/>
+      <c r="M19" s="78"/>
     </row>
     <row r="20" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="127"/>
-      <c r="B20" s="128"/>
-      <c r="C20" s="129"/>
-      <c r="D20" s="131"/>
-      <c r="E20" s="103"/>
-      <c r="F20" s="103"/>
-      <c r="G20" s="103"/>
-      <c r="H20" s="132"/>
-      <c r="I20" s="130"/>
-      <c r="J20" s="129"/>
+      <c r="A20" s="79"/>
+      <c r="B20" s="80"/>
+      <c r="C20" s="81"/>
+      <c r="D20" s="148"/>
+      <c r="E20" s="149"/>
+      <c r="F20" s="149"/>
+      <c r="G20" s="149"/>
+      <c r="H20" s="150"/>
+      <c r="I20" s="82"/>
+      <c r="J20" s="81"/>
       <c r="K20" s="4"/>
-      <c r="L20" s="196"/>
-      <c r="M20" s="197"/>
+      <c r="L20" s="77"/>
+      <c r="M20" s="78"/>
     </row>
     <row r="21" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="127"/>
-      <c r="B21" s="128"/>
-      <c r="C21" s="129"/>
+      <c r="A21" s="79"/>
+      <c r="B21" s="80"/>
+      <c r="C21" s="81"/>
       <c r="D21" s="7"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c r="H21" s="9"/>
-      <c r="I21" s="130"/>
-      <c r="J21" s="129"/>
+      <c r="I21" s="82"/>
+      <c r="J21" s="81"/>
       <c r="K21" s="4"/>
-      <c r="L21" s="196"/>
-      <c r="M21" s="197"/>
+      <c r="L21" s="77"/>
+      <c r="M21" s="78"/>
     </row>
     <row r="22" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="127"/>
-      <c r="B22" s="128"/>
-      <c r="C22" s="129"/>
+      <c r="A22" s="79"/>
+      <c r="B22" s="80"/>
+      <c r="C22" s="81"/>
       <c r="D22" s="7"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c r="H22" s="9"/>
-      <c r="I22" s="130"/>
-      <c r="J22" s="129"/>
+      <c r="I22" s="82"/>
+      <c r="J22" s="81"/>
       <c r="K22" s="4"/>
-      <c r="L22" s="196"/>
-      <c r="M22" s="197"/>
+      <c r="L22" s="77"/>
+      <c r="M22" s="78"/>
     </row>
     <row r="23" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="127"/>
-      <c r="B23" s="128"/>
-      <c r="C23" s="129"/>
-      <c r="D23" s="192"/>
-      <c r="E23" s="108"/>
-      <c r="F23" s="108"/>
-      <c r="G23" s="108"/>
-      <c r="H23" s="193"/>
-      <c r="I23" s="130"/>
-      <c r="J23" s="129"/>
+      <c r="A23" s="79"/>
+      <c r="B23" s="80"/>
+      <c r="C23" s="81"/>
+      <c r="D23" s="83"/>
+      <c r="E23" s="84"/>
+      <c r="F23" s="84"/>
+      <c r="G23" s="84"/>
+      <c r="H23" s="85"/>
+      <c r="I23" s="82"/>
+      <c r="J23" s="81"/>
       <c r="K23" s="4"/>
-      <c r="L23" s="196"/>
-      <c r="M23" s="197"/>
+      <c r="L23" s="77"/>
+      <c r="M23" s="78"/>
     </row>
     <row r="24" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="127"/>
-      <c r="B24" s="128"/>
-      <c r="C24" s="129"/>
-      <c r="D24" s="192"/>
-      <c r="E24" s="108"/>
-      <c r="F24" s="108"/>
-      <c r="G24" s="108"/>
-      <c r="H24" s="193"/>
-      <c r="I24" s="130"/>
-      <c r="J24" s="129"/>
+      <c r="A24" s="79"/>
+      <c r="B24" s="80"/>
+      <c r="C24" s="81"/>
+      <c r="D24" s="83"/>
+      <c r="E24" s="84"/>
+      <c r="F24" s="84"/>
+      <c r="G24" s="84"/>
+      <c r="H24" s="85"/>
+      <c r="I24" s="82"/>
+      <c r="J24" s="81"/>
       <c r="K24" s="4"/>
-      <c r="L24" s="196"/>
-      <c r="M24" s="197"/>
+      <c r="L24" s="77"/>
+      <c r="M24" s="78"/>
     </row>
     <row r="25" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="127"/>
-      <c r="B25" s="128"/>
-      <c r="C25" s="129"/>
-      <c r="D25" s="192"/>
-      <c r="E25" s="108"/>
-      <c r="F25" s="108"/>
-      <c r="G25" s="108"/>
-      <c r="H25" s="193"/>
-      <c r="I25" s="130"/>
-      <c r="J25" s="129"/>
+      <c r="A25" s="79"/>
+      <c r="B25" s="80"/>
+      <c r="C25" s="81"/>
+      <c r="D25" s="83"/>
+      <c r="E25" s="84"/>
+      <c r="F25" s="84"/>
+      <c r="G25" s="84"/>
+      <c r="H25" s="85"/>
+      <c r="I25" s="82"/>
+      <c r="J25" s="81"/>
       <c r="K25" s="4"/>
-      <c r="L25" s="196"/>
-      <c r="M25" s="197"/>
+      <c r="L25" s="77"/>
+      <c r="M25" s="78"/>
     </row>
     <row r="26" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="127"/>
-      <c r="B26" s="128"/>
-      <c r="C26" s="129"/>
-      <c r="D26" s="130"/>
-      <c r="E26" s="128"/>
-      <c r="F26" s="128"/>
-      <c r="G26" s="128"/>
-      <c r="H26" s="129"/>
-      <c r="I26" s="130"/>
-      <c r="J26" s="129"/>
+      <c r="A26" s="79"/>
+      <c r="B26" s="80"/>
+      <c r="C26" s="81"/>
+      <c r="D26" s="82"/>
+      <c r="E26" s="80"/>
+      <c r="F26" s="80"/>
+      <c r="G26" s="80"/>
+      <c r="H26" s="81"/>
+      <c r="I26" s="82"/>
+      <c r="J26" s="81"/>
       <c r="K26" s="4"/>
-      <c r="L26" s="196"/>
-      <c r="M26" s="197"/>
+      <c r="L26" s="77"/>
+      <c r="M26" s="78"/>
     </row>
     <row r="27" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="127"/>
-      <c r="B27" s="128"/>
-      <c r="C27" s="129"/>
-      <c r="D27" s="130"/>
-      <c r="E27" s="128"/>
-      <c r="F27" s="128"/>
-      <c r="G27" s="128"/>
-      <c r="H27" s="129"/>
-      <c r="I27" s="130"/>
-      <c r="J27" s="129"/>
+      <c r="A27" s="79"/>
+      <c r="B27" s="80"/>
+      <c r="C27" s="81"/>
+      <c r="D27" s="82"/>
+      <c r="E27" s="80"/>
+      <c r="F27" s="80"/>
+      <c r="G27" s="80"/>
+      <c r="H27" s="81"/>
+      <c r="I27" s="82"/>
+      <c r="J27" s="81"/>
       <c r="K27" s="11"/>
-      <c r="L27" s="196"/>
-      <c r="M27" s="197"/>
+      <c r="L27" s="77"/>
+      <c r="M27" s="78"/>
     </row>
     <row r="28" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="127"/>
-      <c r="B28" s="128"/>
-      <c r="C28" s="129"/>
-      <c r="D28" s="130"/>
-      <c r="E28" s="128"/>
-      <c r="F28" s="128"/>
-      <c r="G28" s="128"/>
-      <c r="H28" s="129"/>
-      <c r="I28" s="130"/>
-      <c r="J28" s="129"/>
+      <c r="A28" s="79"/>
+      <c r="B28" s="80"/>
+      <c r="C28" s="81"/>
+      <c r="D28" s="82"/>
+      <c r="E28" s="80"/>
+      <c r="F28" s="80"/>
+      <c r="G28" s="80"/>
+      <c r="H28" s="81"/>
+      <c r="I28" s="82"/>
+      <c r="J28" s="81"/>
       <c r="K28" s="11"/>
-      <c r="L28" s="196"/>
-      <c r="M28" s="197"/>
+      <c r="L28" s="77"/>
+      <c r="M28" s="78"/>
     </row>
     <row r="29" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="127"/>
-      <c r="B29" s="128"/>
-      <c r="C29" s="129"/>
-      <c r="D29" s="130"/>
-      <c r="E29" s="128"/>
-      <c r="F29" s="128"/>
-      <c r="G29" s="128"/>
-      <c r="H29" s="129"/>
-      <c r="I29" s="130"/>
-      <c r="J29" s="129"/>
+      <c r="A29" s="79"/>
+      <c r="B29" s="80"/>
+      <c r="C29" s="81"/>
+      <c r="D29" s="82"/>
+      <c r="E29" s="80"/>
+      <c r="F29" s="80"/>
+      <c r="G29" s="80"/>
+      <c r="H29" s="81"/>
+      <c r="I29" s="82"/>
+      <c r="J29" s="81"/>
       <c r="K29" s="11"/>
-      <c r="L29" s="196"/>
-      <c r="M29" s="197"/>
-    </row>
-    <row r="30" spans="1:13" ht="15" x14ac:dyDescent="0.25">
-      <c r="A30" s="127"/>
-      <c r="B30" s="128"/>
-      <c r="C30" s="129"/>
-      <c r="D30" s="130"/>
-      <c r="E30" s="128"/>
-      <c r="F30" s="128"/>
-      <c r="G30" s="128"/>
-      <c r="H30" s="129"/>
-      <c r="I30" s="130"/>
-      <c r="J30" s="129"/>
+      <c r="L29" s="77"/>
+      <c r="M29" s="78"/>
+    </row>
+    <row r="30" spans="1:13" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A30" s="79"/>
+      <c r="B30" s="80"/>
+      <c r="C30" s="81"/>
+      <c r="D30" s="82"/>
+      <c r="E30" s="80"/>
+      <c r="F30" s="80"/>
+      <c r="G30" s="80"/>
+      <c r="H30" s="81"/>
+      <c r="I30" s="82"/>
+      <c r="J30" s="81"/>
       <c r="K30" s="11"/>
-      <c r="L30" s="196"/>
-      <c r="M30" s="197"/>
-    </row>
-    <row r="31" spans="1:13" ht="15" x14ac:dyDescent="0.25">
-      <c r="A31" s="127"/>
-      <c r="B31" s="128"/>
-      <c r="C31" s="129"/>
-      <c r="D31" s="130"/>
-      <c r="E31" s="128"/>
-      <c r="F31" s="128"/>
-      <c r="G31" s="128"/>
-      <c r="H31" s="129"/>
-      <c r="I31" s="130"/>
-      <c r="J31" s="129"/>
+      <c r="L30" s="77"/>
+      <c r="M30" s="78"/>
+    </row>
+    <row r="31" spans="1:13" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A31" s="79"/>
+      <c r="B31" s="80"/>
+      <c r="C31" s="81"/>
+      <c r="D31" s="82"/>
+      <c r="E31" s="80"/>
+      <c r="F31" s="80"/>
+      <c r="G31" s="80"/>
+      <c r="H31" s="81"/>
+      <c r="I31" s="82"/>
+      <c r="J31" s="81"/>
       <c r="K31" s="11"/>
-      <c r="L31" s="196"/>
-      <c r="M31" s="197"/>
-    </row>
-    <row r="32" spans="1:13" ht="15" x14ac:dyDescent="0.25">
-      <c r="A32" s="127"/>
-      <c r="B32" s="128"/>
-      <c r="C32" s="129"/>
-      <c r="D32" s="130"/>
-      <c r="E32" s="128"/>
-      <c r="F32" s="128"/>
-      <c r="G32" s="128"/>
-      <c r="H32" s="129"/>
-      <c r="I32" s="130"/>
-      <c r="J32" s="129"/>
+      <c r="L31" s="77"/>
+      <c r="M31" s="78"/>
+    </row>
+    <row r="32" spans="1:13" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A32" s="79"/>
+      <c r="B32" s="80"/>
+      <c r="C32" s="81"/>
+      <c r="D32" s="82"/>
+      <c r="E32" s="80"/>
+      <c r="F32" s="80"/>
+      <c r="G32" s="80"/>
+      <c r="H32" s="81"/>
+      <c r="I32" s="82"/>
+      <c r="J32" s="81"/>
       <c r="K32" s="11"/>
-      <c r="L32" s="196"/>
-      <c r="M32" s="197"/>
+      <c r="L32" s="77"/>
+      <c r="M32" s="78"/>
     </row>
     <row r="33" spans="1:13" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="113"/>
-      <c r="B33" s="114"/>
-      <c r="C33" s="115"/>
-      <c r="D33" s="116" t="s">
+      <c r="A33" s="153"/>
+      <c r="B33" s="154"/>
+      <c r="C33" s="155"/>
+      <c r="D33" s="156" t="s">
         <v>10</v>
       </c>
-      <c r="E33" s="117"/>
-      <c r="F33" s="117"/>
-      <c r="G33" s="117"/>
-      <c r="H33" s="118"/>
-      <c r="I33" s="119"/>
-      <c r="J33" s="115"/>
+      <c r="E33" s="157"/>
+      <c r="F33" s="157"/>
+      <c r="G33" s="157"/>
+      <c r="H33" s="158"/>
+      <c r="I33" s="159"/>
+      <c r="J33" s="155"/>
       <c r="K33" s="13"/>
-      <c r="L33" s="200" t="str">
+      <c r="L33" s="160" t="str">
         <f>L16</f>
         <v>6,000.00</v>
       </c>
-      <c r="M33" s="201"/>
+      <c r="M33" s="161"/>
     </row>
     <row r="34" spans="1:13" ht="9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="120" t="s">
+      <c r="A34" s="162" t="s">
         <v>11</v>
       </c>
       <c r="B34" s="46"/>
       <c r="C34" s="3"/>
-      <c r="D34" s="83" t="s">
+      <c r="D34" s="164" t="s">
         <v>40</v>
       </c>
-      <c r="E34" s="122"/>
-      <c r="F34" s="122"/>
-      <c r="G34" s="122"/>
-      <c r="H34" s="123"/>
-      <c r="I34" s="124" t="s">
+      <c r="E34" s="165"/>
+      <c r="F34" s="165"/>
+      <c r="G34" s="165"/>
+      <c r="H34" s="166"/>
+      <c r="I34" s="167" t="s">
         <v>12</v>
       </c>
       <c r="J34" s="47"/>
@@ -3108,17 +3108,17 @@
       <c r="M34" s="14"/>
     </row>
     <row r="35" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="121"/>
-      <c r="B35" s="125" t="s">
+      <c r="A35" s="163"/>
+      <c r="B35" s="168" t="s">
         <v>13</v>
       </c>
-      <c r="C35" s="126"/>
-      <c r="D35" s="122"/>
-      <c r="E35" s="122"/>
-      <c r="F35" s="122"/>
-      <c r="G35" s="122"/>
-      <c r="H35" s="123"/>
-      <c r="I35" s="124"/>
+      <c r="C35" s="169"/>
+      <c r="D35" s="165"/>
+      <c r="E35" s="165"/>
+      <c r="F35" s="165"/>
+      <c r="G35" s="165"/>
+      <c r="H35" s="166"/>
+      <c r="I35" s="167"/>
       <c r="J35" s="15" t="s">
         <v>55</v>
       </c>
@@ -3126,17 +3126,17 @@
       <c r="L35" s="3"/>
       <c r="M35" s="14"/>
     </row>
-    <row r="36" spans="1:13" ht="15" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:13" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A36" s="17"/>
-      <c r="B36" s="108" t="s">
+      <c r="B36" s="84" t="s">
         <v>41</v>
       </c>
-      <c r="C36" s="108"/>
-      <c r="D36" s="108"/>
-      <c r="E36" s="108"/>
-      <c r="F36" s="108"/>
-      <c r="G36" s="108"/>
-      <c r="H36" s="109"/>
+      <c r="C36" s="84"/>
+      <c r="D36" s="84"/>
+      <c r="E36" s="84"/>
+      <c r="F36" s="84"/>
+      <c r="G36" s="84"/>
+      <c r="H36" s="176"/>
       <c r="I36" s="5"/>
       <c r="J36" s="3" t="s">
         <v>42</v>
@@ -3145,8 +3145,8 @@
       <c r="L36" s="3"/>
       <c r="M36" s="14"/>
     </row>
-    <row r="37" spans="1:13" ht="15" x14ac:dyDescent="0.25">
-      <c r="A37" s="110"/>
+    <row r="37" spans="1:13" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A37" s="177"/>
       <c r="B37" s="3" t="s">
         <v>43</v>
       </c>
@@ -3165,7 +3165,7 @@
       <c r="M37" s="14"/>
     </row>
     <row r="38" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="110"/>
+      <c r="A38" s="177"/>
       <c r="B38" s="3"/>
       <c r="C38" s="3"/>
       <c r="D38" s="3"/>
@@ -3209,19 +3209,19 @@
       <c r="L40" s="3"/>
       <c r="M40" s="14"/>
     </row>
-    <row r="41" spans="1:13" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:13" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="5" t="s">
         <v>15</v>
       </c>
       <c r="B41" s="3"/>
-      <c r="C41" s="111" t="s">
+      <c r="C41" s="178" t="s">
         <v>44</v>
       </c>
-      <c r="D41" s="111"/>
-      <c r="E41" s="111"/>
-      <c r="F41" s="111"/>
-      <c r="G41" s="111"/>
-      <c r="H41" s="112"/>
+      <c r="D41" s="178"/>
+      <c r="E41" s="178"/>
+      <c r="F41" s="178"/>
+      <c r="G41" s="178"/>
+      <c r="H41" s="179"/>
       <c r="I41" s="3" t="s">
         <v>15</v>
       </c>
@@ -3232,7 +3232,7 @@
       <c r="L41" s="3"/>
       <c r="M41" s="14"/>
     </row>
-    <row r="42" spans="1:13" ht="15" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:13" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A42" s="20"/>
       <c r="B42" s="8"/>
       <c r="C42" s="48"/>
@@ -3270,7 +3270,7 @@
       <c r="L43" s="3"/>
       <c r="M43" s="14"/>
     </row>
-    <row r="44" spans="1:13" ht="15" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:13" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A44" s="20"/>
       <c r="B44" s="8"/>
       <c r="C44" s="22"/>
@@ -3286,18 +3286,18 @@
       <c r="M44" s="14"/>
     </row>
     <row r="45" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="102" t="s">
+      <c r="A45" s="170" t="s">
         <v>17</v>
       </c>
-      <c r="B45" s="103"/>
-      <c r="C45" s="83" t="s">
+      <c r="B45" s="149"/>
+      <c r="C45" s="164" t="s">
         <v>48</v>
       </c>
-      <c r="D45" s="83"/>
-      <c r="E45" s="83"/>
-      <c r="F45" s="83"/>
-      <c r="G45" s="83"/>
-      <c r="H45" s="84"/>
+      <c r="D45" s="164"/>
+      <c r="E45" s="164"/>
+      <c r="F45" s="164"/>
+      <c r="G45" s="164"/>
+      <c r="H45" s="171"/>
       <c r="I45" s="3" t="s">
         <v>17</v>
       </c>
@@ -3311,12 +3311,12 @@
     <row r="46" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="40"/>
       <c r="B46" s="41"/>
-      <c r="C46" s="194"/>
-      <c r="D46" s="194"/>
-      <c r="E46" s="194"/>
-      <c r="F46" s="194"/>
-      <c r="G46" s="194"/>
-      <c r="H46" s="195"/>
+      <c r="C46" s="180"/>
+      <c r="D46" s="180"/>
+      <c r="E46" s="180"/>
+      <c r="F46" s="180"/>
+      <c r="G46" s="180"/>
+      <c r="H46" s="181"/>
       <c r="I46" s="3"/>
       <c r="J46" s="3"/>
       <c r="K46" s="19"/>
@@ -3324,18 +3324,18 @@
       <c r="M46" s="14"/>
     </row>
     <row r="47" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="102" t="s">
+      <c r="A47" s="170" t="s">
         <v>50</v>
       </c>
-      <c r="B47" s="103"/>
-      <c r="C47" s="83" t="s">
+      <c r="B47" s="149"/>
+      <c r="C47" s="164" t="s">
         <v>44</v>
       </c>
-      <c r="D47" s="83"/>
-      <c r="E47" s="83"/>
-      <c r="F47" s="83"/>
-      <c r="G47" s="83"/>
-      <c r="H47" s="84"/>
+      <c r="D47" s="164"/>
+      <c r="E47" s="164"/>
+      <c r="F47" s="164"/>
+      <c r="G47" s="164"/>
+      <c r="H47" s="171"/>
       <c r="I47" s="3" t="s">
         <v>18</v>
       </c>
@@ -3346,7 +3346,7 @@
       <c r="L47" s="3"/>
       <c r="M47" s="14"/>
     </row>
-    <row r="48" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:13" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A48" s="23"/>
       <c r="B48" s="24"/>
       <c r="C48" s="24"/>
@@ -3376,85 +3376,85 @@
       <c r="L49" s="29"/>
       <c r="M49" s="30"/>
     </row>
-    <row r="50" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:13" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A50" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="B50" s="104" t="s">
+      <c r="B50" s="172" t="s">
         <v>51</v>
       </c>
-      <c r="C50" s="105"/>
-      <c r="D50" s="105"/>
-      <c r="E50" s="105"/>
-      <c r="F50" s="105"/>
-      <c r="G50" s="105"/>
-      <c r="H50" s="105"/>
-      <c r="I50" s="105"/>
-      <c r="J50" s="105"/>
-      <c r="K50" s="105"/>
-      <c r="L50" s="105"/>
-      <c r="M50" s="106"/>
-    </row>
-    <row r="51" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="107" t="s">
+      <c r="C50" s="173"/>
+      <c r="D50" s="173"/>
+      <c r="E50" s="173"/>
+      <c r="F50" s="173"/>
+      <c r="G50" s="173"/>
+      <c r="H50" s="173"/>
+      <c r="I50" s="173"/>
+      <c r="J50" s="173"/>
+      <c r="K50" s="173"/>
+      <c r="L50" s="173"/>
+      <c r="M50" s="174"/>
+    </row>
+    <row r="51" spans="1:13" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A51" s="175" t="s">
         <v>21</v>
       </c>
-      <c r="B51" s="105"/>
-      <c r="C51" s="105"/>
-      <c r="D51" s="105"/>
-      <c r="E51" s="105"/>
-      <c r="F51" s="105"/>
-      <c r="G51" s="106"/>
-      <c r="H51" s="107" t="s">
+      <c r="B51" s="173"/>
+      <c r="C51" s="173"/>
+      <c r="D51" s="173"/>
+      <c r="E51" s="173"/>
+      <c r="F51" s="173"/>
+      <c r="G51" s="174"/>
+      <c r="H51" s="175" t="s">
         <v>8</v>
       </c>
-      <c r="I51" s="105"/>
-      <c r="J51" s="105"/>
-      <c r="K51" s="105"/>
-      <c r="L51" s="105"/>
-      <c r="M51" s="106"/>
-    </row>
-    <row r="52" spans="1:13" ht="15" x14ac:dyDescent="0.25">
-      <c r="A52" s="88" t="s">
+      <c r="I51" s="173"/>
+      <c r="J51" s="173"/>
+      <c r="K51" s="173"/>
+      <c r="L51" s="173"/>
+      <c r="M51" s="174"/>
+    </row>
+    <row r="52" spans="1:13" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A52" s="191" t="s">
         <v>22</v>
       </c>
-      <c r="B52" s="90" t="s">
+      <c r="B52" s="193" t="s">
         <v>6</v>
       </c>
-      <c r="C52" s="91"/>
-      <c r="D52" s="91"/>
-      <c r="E52" s="94" t="s">
+      <c r="C52" s="194"/>
+      <c r="D52" s="194"/>
+      <c r="E52" s="197" t="s">
         <v>52</v>
       </c>
-      <c r="F52" s="95"/>
-      <c r="G52" s="96"/>
-      <c r="H52" s="88" t="s">
+      <c r="F52" s="198"/>
+      <c r="G52" s="199"/>
+      <c r="H52" s="191" t="s">
         <v>53</v>
       </c>
-      <c r="I52" s="100" t="s">
+      <c r="I52" s="200" t="s">
         <v>23</v>
       </c>
-      <c r="J52" s="101"/>
-      <c r="K52" s="77" t="s">
+      <c r="J52" s="201"/>
+      <c r="K52" s="182" t="s">
         <v>24</v>
       </c>
-      <c r="L52" s="78" t="s">
+      <c r="L52" s="183" t="s">
         <v>25</v>
       </c>
-      <c r="M52" s="79"/>
-    </row>
-    <row r="53" spans="1:13" ht="30.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="88"/>
-      <c r="B53" s="90"/>
-      <c r="C53" s="91"/>
-      <c r="D53" s="91"/>
-      <c r="E53" s="94"/>
-      <c r="F53" s="95"/>
-      <c r="G53" s="96"/>
-      <c r="H53" s="88"/>
-      <c r="I53" s="100"/>
-      <c r="J53" s="101"/>
-      <c r="K53" s="77"/>
+      <c r="M52" s="184"/>
+    </row>
+    <row r="53" spans="1:13" ht="28.2" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A53" s="191"/>
+      <c r="B53" s="193"/>
+      <c r="C53" s="194"/>
+      <c r="D53" s="194"/>
+      <c r="E53" s="197"/>
+      <c r="F53" s="198"/>
+      <c r="G53" s="199"/>
+      <c r="H53" s="191"/>
+      <c r="I53" s="200"/>
+      <c r="J53" s="201"/>
+      <c r="K53" s="182"/>
       <c r="L53" s="43" t="s">
         <v>26</v>
       </c>
@@ -3462,32 +3462,32 @@
         <v>27</v>
       </c>
     </row>
-    <row r="54" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A54" s="89"/>
-      <c r="B54" s="92"/>
-      <c r="C54" s="93"/>
-      <c r="D54" s="93"/>
-      <c r="E54" s="97"/>
-      <c r="F54" s="98"/>
-      <c r="G54" s="99"/>
+    <row r="54" spans="1:13" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A54" s="192"/>
+      <c r="B54" s="195"/>
+      <c r="C54" s="196"/>
+      <c r="D54" s="196"/>
+      <c r="E54" s="114"/>
+      <c r="F54" s="90"/>
+      <c r="G54" s="115"/>
       <c r="H54" s="51" t="s">
         <v>28</v>
       </c>
-      <c r="I54" s="80" t="s">
+      <c r="I54" s="185" t="s">
         <v>29</v>
       </c>
-      <c r="J54" s="81"/>
+      <c r="J54" s="186"/>
       <c r="K54" s="52" t="s">
         <v>30</v>
       </c>
       <c r="L54" s="53"/>
       <c r="M54" s="54"/>
     </row>
-    <row r="55" spans="1:13" ht="15" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:13" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A55" s="55"/>
-      <c r="B55" s="85"/>
-      <c r="C55" s="86"/>
-      <c r="D55" s="87"/>
+      <c r="B55" s="188"/>
+      <c r="C55" s="189"/>
+      <c r="D55" s="190"/>
       <c r="E55" s="56"/>
       <c r="F55" s="16"/>
       <c r="G55" s="39"/>
@@ -3498,7 +3498,7 @@
       <c r="L55" s="32"/>
       <c r="M55" s="34"/>
     </row>
-    <row r="56" spans="1:13" ht="15" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:13" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A56" s="55"/>
       <c r="B56" s="35"/>
       <c r="C56" s="3"/>
@@ -3513,7 +3513,7 @@
       <c r="L56" s="32"/>
       <c r="M56" s="34"/>
     </row>
-    <row r="57" spans="1:13" ht="15" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:13" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A57" s="55"/>
       <c r="B57" s="35"/>
       <c r="C57" s="3"/>
@@ -3528,14 +3528,14 @@
       <c r="L57" s="32"/>
       <c r="M57" s="37"/>
     </row>
-    <row r="58" spans="1:13" ht="15" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:13" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A58" s="55"/>
       <c r="B58" s="35"/>
       <c r="C58" s="3"/>
       <c r="D58" s="6"/>
-      <c r="E58" s="82"/>
-      <c r="F58" s="83"/>
-      <c r="G58" s="84"/>
+      <c r="E58" s="187"/>
+      <c r="F58" s="164"/>
+      <c r="G58" s="171"/>
       <c r="H58" s="57"/>
       <c r="I58" s="58"/>
       <c r="J58" s="36"/>
@@ -3543,7 +3543,7 @@
       <c r="L58" s="32"/>
       <c r="M58" s="37"/>
     </row>
-    <row r="59" spans="1:13" ht="15" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:13" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A59" s="55"/>
       <c r="B59" s="35"/>
       <c r="C59" s="3"/>
@@ -3558,7 +3558,7 @@
       <c r="L59" s="38"/>
       <c r="M59" s="37"/>
     </row>
-    <row r="60" spans="1:13" ht="15" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:13" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A60" s="55"/>
       <c r="B60" s="35"/>
       <c r="C60" s="3"/>
@@ -3573,7 +3573,7 @@
       <c r="L60" s="33"/>
       <c r="M60" s="63"/>
     </row>
-    <row r="61" spans="1:13" ht="15" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:13" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A61" s="55"/>
       <c r="B61" s="35"/>
       <c r="C61" s="3"/>
@@ -3588,7 +3588,7 @@
       <c r="L61" s="33"/>
       <c r="M61" s="63"/>
     </row>
-    <row r="62" spans="1:13" ht="15" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:13" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A62" s="55"/>
       <c r="B62" s="35"/>
       <c r="C62" s="3"/>
@@ -3603,7 +3603,7 @@
       <c r="L62" s="33"/>
       <c r="M62" s="63"/>
     </row>
-    <row r="63" spans="1:13" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:13" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A63" s="64"/>
       <c r="B63" s="65"/>
       <c r="C63" s="66"/>
@@ -3620,48 +3620,60 @@
     </row>
   </sheetData>
   <mergeCells count="117">
-    <mergeCell ref="L17:M17"/>
-    <mergeCell ref="L20:M20"/>
-    <mergeCell ref="L21:M21"/>
-    <mergeCell ref="A21:C21"/>
-    <mergeCell ref="I21:J21"/>
-    <mergeCell ref="L23:M23"/>
-    <mergeCell ref="L24:M24"/>
-    <mergeCell ref="D25:H25"/>
-    <mergeCell ref="L25:M25"/>
-    <mergeCell ref="A23:C23"/>
-    <mergeCell ref="L22:M22"/>
-    <mergeCell ref="A22:C22"/>
-    <mergeCell ref="I22:J22"/>
-    <mergeCell ref="D23:H23"/>
-    <mergeCell ref="I23:J23"/>
-    <mergeCell ref="A24:C24"/>
-    <mergeCell ref="D24:H24"/>
-    <mergeCell ref="A10:C11"/>
-    <mergeCell ref="D10:M11"/>
-    <mergeCell ref="A12:C13"/>
-    <mergeCell ref="D12:H13"/>
-    <mergeCell ref="I12:J13"/>
-    <mergeCell ref="K12:K13"/>
-    <mergeCell ref="L12:M13"/>
-    <mergeCell ref="A14:C14"/>
-    <mergeCell ref="D14:H14"/>
-    <mergeCell ref="I14:J14"/>
-    <mergeCell ref="A5:J5"/>
-    <mergeCell ref="K5:M5"/>
-    <mergeCell ref="L1:M1"/>
-    <mergeCell ref="A3:J3"/>
-    <mergeCell ref="K3:M3"/>
-    <mergeCell ref="A4:J4"/>
-    <mergeCell ref="K4:M4"/>
-    <mergeCell ref="L2:M2"/>
-    <mergeCell ref="A8:C9"/>
-    <mergeCell ref="D8:M9"/>
-    <mergeCell ref="A6:C7"/>
-    <mergeCell ref="D6:M7"/>
-    <mergeCell ref="I24:J24"/>
-    <mergeCell ref="A25:C25"/>
-    <mergeCell ref="I25:J25"/>
+    <mergeCell ref="K52:K53"/>
+    <mergeCell ref="L52:M52"/>
+    <mergeCell ref="I54:J54"/>
+    <mergeCell ref="E58:G58"/>
+    <mergeCell ref="B55:D55"/>
+    <mergeCell ref="A52:A54"/>
+    <mergeCell ref="B52:D54"/>
+    <mergeCell ref="E52:G54"/>
+    <mergeCell ref="H52:H53"/>
+    <mergeCell ref="I52:J53"/>
+    <mergeCell ref="A47:B47"/>
+    <mergeCell ref="C47:H47"/>
+    <mergeCell ref="B50:M50"/>
+    <mergeCell ref="A51:G51"/>
+    <mergeCell ref="H51:M51"/>
+    <mergeCell ref="B36:H36"/>
+    <mergeCell ref="A37:A38"/>
+    <mergeCell ref="C41:H41"/>
+    <mergeCell ref="A45:B45"/>
+    <mergeCell ref="C45:H45"/>
+    <mergeCell ref="C46:H46"/>
+    <mergeCell ref="A33:C33"/>
+    <mergeCell ref="D33:H33"/>
+    <mergeCell ref="I33:J33"/>
+    <mergeCell ref="L33:M33"/>
+    <mergeCell ref="A34:A35"/>
+    <mergeCell ref="D34:H35"/>
+    <mergeCell ref="I34:I35"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="A31:C31"/>
+    <mergeCell ref="D31:H31"/>
+    <mergeCell ref="I31:J31"/>
+    <mergeCell ref="L31:M31"/>
+    <mergeCell ref="A32:C32"/>
+    <mergeCell ref="D32:H32"/>
+    <mergeCell ref="I32:J32"/>
+    <mergeCell ref="L32:M32"/>
+    <mergeCell ref="A29:C29"/>
+    <mergeCell ref="D29:H29"/>
+    <mergeCell ref="I29:J29"/>
+    <mergeCell ref="L29:M29"/>
+    <mergeCell ref="A30:C30"/>
+    <mergeCell ref="D30:H30"/>
+    <mergeCell ref="I30:J30"/>
+    <mergeCell ref="L30:M30"/>
+    <mergeCell ref="L26:M26"/>
+    <mergeCell ref="A27:C27"/>
+    <mergeCell ref="I27:J27"/>
+    <mergeCell ref="L27:M27"/>
+    <mergeCell ref="A28:C28"/>
+    <mergeCell ref="D28:H28"/>
+    <mergeCell ref="I28:J28"/>
+    <mergeCell ref="L28:M28"/>
+    <mergeCell ref="D27:H27"/>
     <mergeCell ref="A26:C26"/>
     <mergeCell ref="D26:H26"/>
     <mergeCell ref="I26:J26"/>
@@ -3683,63 +3695,51 @@
     <mergeCell ref="I20:J20"/>
     <mergeCell ref="L16:M16"/>
     <mergeCell ref="A17:C17"/>
-    <mergeCell ref="A29:C29"/>
-    <mergeCell ref="D29:H29"/>
-    <mergeCell ref="I29:J29"/>
-    <mergeCell ref="L29:M29"/>
-    <mergeCell ref="A30:C30"/>
-    <mergeCell ref="D30:H30"/>
-    <mergeCell ref="I30:J30"/>
-    <mergeCell ref="L30:M30"/>
-    <mergeCell ref="L26:M26"/>
-    <mergeCell ref="A27:C27"/>
-    <mergeCell ref="I27:J27"/>
-    <mergeCell ref="L27:M27"/>
-    <mergeCell ref="A28:C28"/>
-    <mergeCell ref="D28:H28"/>
-    <mergeCell ref="I28:J28"/>
-    <mergeCell ref="L28:M28"/>
-    <mergeCell ref="D27:H27"/>
-    <mergeCell ref="A33:C33"/>
-    <mergeCell ref="D33:H33"/>
-    <mergeCell ref="I33:J33"/>
-    <mergeCell ref="L33:M33"/>
-    <mergeCell ref="A34:A35"/>
-    <mergeCell ref="D34:H35"/>
-    <mergeCell ref="I34:I35"/>
-    <mergeCell ref="B35:C35"/>
-    <mergeCell ref="A31:C31"/>
-    <mergeCell ref="D31:H31"/>
-    <mergeCell ref="I31:J31"/>
-    <mergeCell ref="L31:M31"/>
-    <mergeCell ref="A32:C32"/>
-    <mergeCell ref="D32:H32"/>
-    <mergeCell ref="I32:J32"/>
-    <mergeCell ref="L32:M32"/>
-    <mergeCell ref="A47:B47"/>
-    <mergeCell ref="C47:H47"/>
-    <mergeCell ref="B50:M50"/>
-    <mergeCell ref="A51:G51"/>
-    <mergeCell ref="H51:M51"/>
-    <mergeCell ref="B36:H36"/>
-    <mergeCell ref="A37:A38"/>
-    <mergeCell ref="C41:H41"/>
-    <mergeCell ref="A45:B45"/>
-    <mergeCell ref="C45:H45"/>
-    <mergeCell ref="C46:H46"/>
-    <mergeCell ref="K52:K53"/>
-    <mergeCell ref="L52:M52"/>
-    <mergeCell ref="I54:J54"/>
-    <mergeCell ref="E58:G58"/>
-    <mergeCell ref="B55:D55"/>
-    <mergeCell ref="A52:A54"/>
-    <mergeCell ref="B52:D54"/>
-    <mergeCell ref="E52:G54"/>
-    <mergeCell ref="H52:H53"/>
-    <mergeCell ref="I52:J53"/>
+    <mergeCell ref="A5:J5"/>
+    <mergeCell ref="K5:M5"/>
+    <mergeCell ref="L1:M1"/>
+    <mergeCell ref="A3:J3"/>
+    <mergeCell ref="K3:M3"/>
+    <mergeCell ref="A4:J4"/>
+    <mergeCell ref="K4:M4"/>
+    <mergeCell ref="L2:M2"/>
+    <mergeCell ref="A8:C9"/>
+    <mergeCell ref="D8:M9"/>
+    <mergeCell ref="A6:C7"/>
+    <mergeCell ref="D6:M7"/>
+    <mergeCell ref="A10:C11"/>
+    <mergeCell ref="D10:M11"/>
+    <mergeCell ref="A12:C13"/>
+    <mergeCell ref="D12:H13"/>
+    <mergeCell ref="I12:J13"/>
+    <mergeCell ref="K12:K13"/>
+    <mergeCell ref="L12:M13"/>
+    <mergeCell ref="A14:C14"/>
+    <mergeCell ref="D14:H14"/>
+    <mergeCell ref="I14:J14"/>
+    <mergeCell ref="L17:M17"/>
+    <mergeCell ref="L20:M20"/>
+    <mergeCell ref="L21:M21"/>
+    <mergeCell ref="A21:C21"/>
+    <mergeCell ref="I21:J21"/>
+    <mergeCell ref="L23:M23"/>
+    <mergeCell ref="L24:M24"/>
+    <mergeCell ref="D25:H25"/>
+    <mergeCell ref="L25:M25"/>
+    <mergeCell ref="A23:C23"/>
+    <mergeCell ref="L22:M22"/>
+    <mergeCell ref="A22:C22"/>
+    <mergeCell ref="I22:J22"/>
+    <mergeCell ref="D23:H23"/>
+    <mergeCell ref="I23:J23"/>
+    <mergeCell ref="A24:C24"/>
+    <mergeCell ref="D24:H24"/>
+    <mergeCell ref="I24:J24"/>
+    <mergeCell ref="A25:C25"/>
+    <mergeCell ref="I25:J25"/>
   </mergeCells>
   <pageMargins left="1" right="1" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" scale="78" orientation="portrait" horizontalDpi="4294967294" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="71" orientation="portrait" horizontalDpi="4294967294" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
 </file>